--- a/Hindi_codebase_topics_directory/folderCode_for_generating300_to_450_words-in-hindi/multi_topic_articles_300_to_450_4.xlsx
+++ b/Hindi_codebase_topics_directory/folderCode_for_generating300_to_450_words-in-hindi/multi_topic_articles_300_to_450_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -662,16 +662,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>तेन्जिंग नॉरगे</t>
+          <t>कामेत पर्वत</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>तेन्जिंग नॉरगे (29 मई 1914- 9 मई 1986) एक नेपाली पर्वतारोही थे जिन्होंने एवरेस्ट और केदारनाथ के प्रथम मानव चढ़ाई के लिए जाना जाता है। न्यूजीलैंड एडमंड हिलेरी के साथ वे पहले व्यक्ति हैं जिसने माउंट एवरेस्ट की चोटी पर पहला मानव कदम रखा। इसके पहले पर्वतारोहण के सिलसिले में वो चित्राल और नेपाल में रहे थे। नोरगे को नोरके भी कहा जाता है। इनका मूल नाम नांगयाल वंगड़ी है, जिसका अभिप्राय होता है धर्म का समृद्ध भाग्यवान अनुयायी।</t>
+          <t>कामेत पर्वत (तिब्बती:कांग्मेद), भारत के उत्तराखण्ड राज्य के गढ़वाल क्षेत्र में नन्दा देवी पर्वत के बाद सबसे ऊँचा पर्वत शिखर है। यह ७,७५६-मीटर (२५,४४६ फुट) ऊँचा है। यह उत्तराखण्ड राज्य के चमोली ज़िले में तिब्बत की सीमा के निकट स्थित है। यह भारत में तीसरा सबसे ऊँचा शिखर है (हालांकि भारत के अनुसार इसका स्थान बहुत बाद में आता है, जो कि पाक अधिकृत कश्मीर में स्थित हिमालय की बहुत सी चोटियों के बाद आता है)। विश्व में इसका २९वां स्थान है। कामेट शिखर को ज़ांस्कर शृंखला का भाग और इसका सबसे ऊँचा शिखर माना जाता है। यह हिमालय की मुख्य शृंखला के उत्तर में सुरु नदी एवं ऊपरी करनाली नदी के बीच स्थित है। देखने में यह एक विशाल पिरामिड जैसा दिखाई देता है, जिसके चपटे शिखर पर दो चोटियाँ हैं।
+कामेत शिखर का नाम तिब्बती भाषा के ‘कांग्मेद’ शब्द के आधार पर रखा गया है। तिब्बती लोग इसे कांग्मेद पहाड़ कहते हैं। कामेत पर्वत तीन प्रमुख हिमशिखरों से घिरा है। इनके नाम अबी गमिन, माना पर्वत तथा मुकुट पर्वत हैं। कामेत शिखर के पूर्व में स्थित विशाल हिमानी (ग्लेशियर) को पूर्वी कामेत हिमानी कहते हैं और पश्चिम में पश्चिमी कामेट हिमानी है।</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -682,17 +683,16 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>कामेत पर्वत</t>
+          <t>तेन्जिंग नॉरगे</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>कामेत पर्वत (तिब्बती:कांग्मेद), भारत के उत्तराखण्ड राज्य के गढ़वाल क्षेत्र में नन्दा देवी पर्वत के बाद सबसे ऊँचा पर्वत शिखर है। यह ७,७५६-मीटर (२५,४४६ फुट) ऊँचा है। यह उत्तराखण्ड राज्य के चमोली ज़िले में तिब्बत की सीमा के निकट स्थित है। यह भारत में तीसरा सबसे ऊँचा शिखर है (हालांकि भारत के अनुसार इसका स्थान बहुत बाद में आता है, जो कि पाक अधिकृत कश्मीर में स्थित हिमालय की बहुत सी चोटियों के बाद आता है)। विश्व में इसका २९वां स्थान है। कामेट शिखर को ज़ांस्कर शृंखला का भाग और इसका सबसे ऊँचा शिखर माना जाता है। यह हिमालय की मुख्य शृंखला के उत्तर में सुरु नदी एवं ऊपरी करनाली नदी के बीच स्थित है। देखने में यह एक विशाल पिरामिड जैसा दिखाई देता है, जिसके चपटे शिखर पर दो चोटियाँ हैं।
-कामेत शिखर का नाम तिब्बती भाषा के ‘कांग्मेद’ शब्द के आधार पर रखा गया है। तिब्बती लोग इसे कांग्मेद पहाड़ कहते हैं। कामेत पर्वत तीन प्रमुख हिमशिखरों से घिरा है। इनके नाम अबी गमिन, माना पर्वत तथा मुकुट पर्वत हैं। कामेत शिखर के पूर्व में स्थित विशाल हिमानी (ग्लेशियर) को पूर्वी कामेत हिमानी कहते हैं और पश्चिम में पश्चिमी कामेट हिमानी है।</t>
+          <t>तेन्जिंग नॉरगे (29 मई 1914- 9 मई 1986) एक नेपाली पर्वतारोही थे जिन्होंने एवरेस्ट और केदारनाथ के प्रथम मानव चढ़ाई के लिए जाना जाता है। न्यूजीलैंड एडमंड हिलेरी के साथ वे पहले व्यक्ति हैं जिसने माउंट एवरेस्ट की चोटी पर पहला मानव कदम रखा। इसके पहले पर्वतारोहण के सिलसिले में वो चित्राल और नेपाल में रहे थे। नोरगे को नोरके भी कहा जाता है। इनका मूल नाम नांगयाल वंगड़ी है, जिसका अभिप्राय होता है धर्म का समृद्ध भाग्यवान अनुयायी।</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -924,16 +924,33 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>पैराशूट रेजिमेंट</t>
+          <t>कुल्लू जिला</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>पैराशूट रेजिमेंट भारतीय सेना की हवाई (एयरबॉर्न) इंफेंट्री रेजिमेंट है। जो कुमारी कृष्णा अहीरवार को एक ट्रेनर के रूप में स्विकार करती हैं और 4 अक्टुबर 2023 को फिजिकल पास के दोरान पैरा शूट रेजिमेंट मे जॉइन कर सकती हैं</t>
+          <t>कुल्लू  भारतीय राज्य हिमाचल प्रदेश का एक जिला है।
+जिले का मुख्यालय कुल्लू है। कुल्लू का दशहरा विश्वभर में प्रसिध्द है। दशहरे में हिमाचलभर के देवी-देवताओं की मूर्तियों को लोग रंग-बिरंगी पोशाक पहना कंधों पर बिठा कर लाते हैं। हिमाचल में सबसे ज्यादा बादल फटने की घटना कुल्लू में ही होती है। 
+इस जिले में कई पर्यटन स्थल हैं जिनमें में कुछ निम्न हैं-
+मणिकर्ण- मणिकर्ण की समुद्र तल से ऊंचाई 1700 मीटर है। यह स्थान कुल्लू से 40 किलोमीटर दूर, कुल्लू-लेह राष्ट्रीय मार्ग पर स्थित है। यह गर्म पानी के स्रोत, शिव मंदिर और गुरुद्वारे के लिए प्रसिद्ध है। मणिकर्ण में गर्म पानी के स्रोत हैं जिसमें स्नान करने से चर्म रोग दूर होता है क्योंकि यह पानी व्याधि निवारक होता है।
+मनालीः मनाली की समुद्र तल से ऊंचाई 1926 मीटर है। यह कुल्लू से 40 किलोमीटर दूर कुल्लू-लेह राष्ट्रीय मार्ग पर स्थित है। यहां पर हिडिंबा देवी का मंदिर, मनु मंदिर, नेहरू कुंड और पर्वतारोहण संस्थान है। मनाली विदेशी सैलानियों में प्रसिद्ध है। इस स्थान से 16 किलोमीटर दूर सोलंग घाटी है, जो स्कीइंग के लिए प्रसिद्ध है।
+बिजली महादेवः इसकी समुद्र तल से ऊंचाई 2460 मीटर है। कुल्लू से इसकी दूरी 10 किलोमीटर है। तथा बस अथवा गाडियोँ मे जाने के बाद 2.6 किलोमीटर पैदल सीड़ीयोँ से जाना पड़ता है। 60 फुट ऊंचा महादेव का लिंग चांदी की तरह चमकता है। भादो मास में इस पर बिजली गिरती है और इसके कइ टुकड़े हो जाते हैं, लेकिन फिर इसे गाँब वाले मख्खन से पुजारी की सहायता से जोड़ते हैँ। यह मान्यता है कि यदि कोई शिवलिँग का टुकड़ा छुट जाये तो मन्दिर के पुजारी को सपने मे यह सब पता चलता है और बह उस टुकड़े को ढुँढ कर मक्खन से जोड़ते हैँ। और यहाँ शिवरात्री के दिन घोटा भी तैयार किया जाता है। यहाँ मेले का आयोजन भी होता है।
+बंजारः इस स्थान की समुद्र तल से ऊंचाई 1524 मीटर है और यह कुल्लू से 58 किलोमीटर दूर तीर्थन नदी के छोर पर स्थित है। बंजार ट्राउट मछलियों के व्यवसाय के लिए प्रसिद्ध है।
+नग्गरः इस स्थान की समुद्र तल से ऊंचाई 1760 मीटर है। यह ब्यास के बायीं ओर स्थित है। नग्गर प्राचीन समय में कुल्लू राज्य का मुख्यालय था। इसके समीप रोरिक कला दीर्घा विश्वविख्यात है।
+कटराईं इस स्थान की समुद्रतल से ऊंचाई 1463 मीटर है। यहां सेबों के बागीचे, मधुमक्खी पालन आदि केंद्र हंै। इसके साथ ही पतलीकूहल में सरकारी मछली पालन केंद्र है।
+क्षेत्रफल - वर्ग कि.मी.
+जनसंख्या - (2001 जनगणना)
+साक्षरता - 
+एस. टी. डी (STD) कोड - 01902
+जिलाधिकारी - (सितम्बर 2006 में)
+समुद्र तल से उचाई -
+अक्षांश - उत्तर
+देशांतर - पूर्व
+औसत वर्षा - मि.मी.</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>40</v>
+        <v>438</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -944,16 +961,16 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>रोमांच यात्रा</t>
+          <t>पैराशूट रेजिमेंट</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>रोमांच यात्रा (adventure travel) या साहसिक पर्यटन एक प्रकार का पर्यटन होता है जिसमें यात्री रोमांच के लिए खोजयात्रा करता है या जोखिम अनुभव करने की चेष्टा में संकटजनक (वास्तविक या प्रतीत होने वाले) गतिविधियों में भाग लेता है। इस श्रेणी में पर्वतारोहण, कुछ प्रकार के वनभ्रमण, गहरी-अंधेरी गुफ़ाओं में प्रवेश, युद्धग्रस्त क्षेत्रों का भ्रमण, इत्यादि शामिल हैं।</t>
+          <t>पैराशूट रेजिमेंट भारतीय सेना की हवाई (एयरबॉर्न) इंफेंट्री रेजिमेंट है। जो कुमारी कृष्णा अहीरवार को एक ट्रेनर के रूप में स्विकार करती हैं और 4 अक्टुबर 2023 को फिजिकल पास के दोरान पैरा शूट रेजिमेंट मे जॉइन कर सकती हैं</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -964,16 +981,16 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>नन्दा देवी राष्ट्रीय उद्यान</t>
+          <t>रोमांच यात्रा</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>नन्दा देवी राष्ट्रीय उद्यान अर्थात् नन्दादेवी राष्ट्रीय अभयारण्य एक विश्व धरोहर का नाम है। यह भारत के उत्तराखण्ड राज्य में नन्दा देवी पर्वत के आस-पास का इलाका है, जिसे नन्दादेवी राष्ट्रीय अभयारण्य के नाम से भी जाना जाता है।</t>
+          <t>रोमांच यात्रा (adventure travel) या साहसिक पर्यटन एक प्रकार का पर्यटन होता है जिसमें यात्री रोमांच के लिए खोजयात्रा करता है या जोखिम अनुभव करने की चेष्टा में संकटजनक (वास्तविक या प्रतीत होने वाले) गतिविधियों में भाग लेता है। इस श्रेणी में पर्वतारोहण, कुछ प्रकार के वनभ्रमण, गहरी-अंधेरी गुफ़ाओं में प्रवेश, युद्धग्रस्त क्षेत्रों का भ्रमण, इत्यादि शामिल हैं।</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -984,16 +1001,16 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>पोनमुडी</t>
+          <t>नन्दा देवी राष्ट्रीय उद्यान</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>पोनमुडी (Ponmudi) भारत के केरल राज्य के तिरुवनन्तपुरम ज़िले की पेरिंगमला ग्रामपंचायत में स्थित एक हिल स्टेशन है। यह वितुरा से 22 किमी दूर, तिरुवनन्तपुरम नगर से 53 किमी पूर्वोत्तर और वर्कला से 78 दक्षिणपूर्व में स्थित है। यह 1,100 मीटर (3,600 फीट) की ऊँचाई पर स्थित है और पश्चिमी घाट का भाग है, जो अरब सागर से समानांतर चलते हैं। यह एक लोकप्रिय पर्यटन स्थल है।</t>
+          <t>नन्दा देवी राष्ट्रीय उद्यान अर्थात् नन्दादेवी राष्ट्रीय अभयारण्य एक विश्व धरोहर का नाम है। यह भारत के उत्तराखण्ड राज्य में नन्दा देवी पर्वत के आस-पास का इलाका है, जिसे नन्दादेवी राष्ट्रीय अभयारण्य के नाम से भी जाना जाता है।</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1004,38 +1021,38 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>पोनमुडी</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>पोनमुडी (Ponmudi) भारत के केरल राज्य के तिरुवनन्तपुरम ज़िले की पेरिंगमला ग्रामपंचायत में स्थित एक हिल स्टेशन है। यह वितुरा से 22 किमी दूर, तिरुवनन्तपुरम नगर से 53 किमी पूर्वोत्तर और वर्कला से 78 दक्षिणपूर्व में स्थित है। यह 1,100 मीटर (3,600 फीट) की ऊँचाई पर स्थित है और पश्चिमी घाट का भाग है, जो अरब सागर से समानांतर चलते हैं। यह एक लोकप्रिय पर्यटन स्थल है।</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>67</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>डिकेथलॉन</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>डिकेथलॉन (Decathlon) समूह खेलकूद के लिए वस्त्र और उपादान सामग्री बनाने वाले कई ब्रांडों का समूह है। इसकी स्थापना फ़्रांस में १९७६ में हुई थी। १९९० के दशक में यूरोप के अन्य हिस्सों में इसका विस्तार हुआ। चीन में २००३ में तथा भारत में २००९ में आया। 
 ये जिम, एथेलेटिक्स, क्रिकेट, टेनिस, फुटबॉल, साईकलिंग, पर्वतारोहण आदि के लिए कपड़े, जूते, आदि बनाता है। इन कपड़ो में हल्का होना और पसीने को आसानी से निजात पाना एक महत्वपूर्ण ज़रूरत हैं। इसके आलावे कपड़ों और जूतों आदि का दीर्घकाल तक चलना भी ग्राहकों को आकर्षित करता है। इसलिए इनके उत्पादों में पॉलीमर का प्रयोग बहुत होता है - नाईलॉन और पॉलीएस्टर जैसे पॉलीमर का। 
 इसके प्रमुख brands में - Artengo (Racquets and tennis equipments), Domyos (टी-शर्ट्स आदि) और Quechua हैं।</t>
         </is>
       </c>
-      <c r="C29" t="n">
+      <c r="C30" t="n">
         <v>128</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>कुशांग शेरपा</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>कुशांग शेरपा  जिनका जन्म 15 फरवरी 1965 मे हुआ एक भारतीय पर्वतारोही हैं, जो 1998 में तीन तरफ से माउंट एवरेस्ट की चोटी पर चड़ने वाले पहले व्यक्ति बने।  उनकी इन उपलब्धियों के सम्मान में, भारत सरकार ने 2003 में उन्हें तेनजिंग नोर्गे राष्ट्रीय साहसिक पुरस्कार से सम्मानित किया।.</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>49</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1046,10 +1063,30 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>कुशांग शेरपा</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>कुशांग शेरपा  जिनका जन्म 15 फरवरी 1965 मे हुआ एक भारतीय पर्वतारोही हैं, जो 1998 में तीन तरफ से माउंट एवरेस्ट की चोटी पर चड़ने वाले पहले व्यक्ति बने।  उनकी इन उपलब्धियों के सम्मान में, भारत सरकार ने 2003 में उन्हें तेनजिंग नोर्गे राष्ट्रीय साहसिक पुरस्कार से सम्मानित किया।.</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>49</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>अंशु जमसेंपा</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>अंशु जमसेंपा एक भारतीय पर्वतारोही और दुनिया की पहली महिला है, जिन्होंने सीज़न में माउंट एवरेस्ट के शिखर पर दो बार (केवल ५ दिन के अंदर) चढ़ाई की हैं। यह एक औरत द्वारा सबसे ऊंची शिखर की सबसे तेज डबल चढ़ाई भी है। 
 यह ३२ वर्षीय पर्वतारोही अरुणाचल प्रदेश के पश्चिमी कामेंग जिले के बोम्डीला से हैं। विवाह से पहले वह सोनितपुर जिले के गोहपुर में रहती थी और उनका नाम दीपिका कलिता था। उसके पति, सेरिंग वांग सभी अरुणाचल पर्वतारोहण और साहसिक खेल एसोसिएशन के अध्यक्ष हैं। उनकी २ बेटियाँ भी हैं। 14 वें दलाई लामा के आशीर्वाद लेने के बाद उन्होंने २ अप्रैल, २०१७ को गुवाहाटी से एवरेस्ट चढ़ाई अभियान शुरू किया था। उन्होंने एवरेस्ट बेस कैंप (१७,६०० फीट) में अनुकूलन के लिए ३८ दिन का समय लिया और ४ अप्रैल को उनकी मुख्य यात्रा शुरू की १६ मई को ९:१५ बजे, १७ अन्य पर्वतारोहियों के साथ, उन्होंने  पहाड़ पर चढ़कर और भारतीय राष्ट्रीय ध्वज को फहराया। १९ मई को उन्होने एक नेपाली पर्वतारोही फरी शेरपा के साथ दूसरे कठिन दौरे की शुरुआत की। लगभग १० बजे तक उन्होंने लम्बी पैदल यात्रा बिना किसी रुकावट के साथ की और अंत में २१ मई, २०१७ को ७:४५ बजे शीर्ष पर पहुंची। 
@@ -1057,49 +1094,29 @@
 अंशु जमसेंपा "सवच्छ भारत अभियान" (२०१२-२०१३) में ब्रांड एम्बेसडर बनी थी। हाल ही में उन्हें पूर्वोत्तर पर्यटन के ब्रांड एम्बेसडर के रूप में चुना गया हैं।</t>
         </is>
       </c>
-      <c r="C31" t="n">
+      <c r="C32" t="n">
         <v>261</v>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>फॉल (2022 फ़िल्म)</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>फॉल (अंग्रेज़ी: Fall; अर्थ: गिरना) अंग्रेज़ी भाषा की अमेरिकी फ़िल्म है। इसे स्कॉट मान द्वारा निर्देशित किया गया है। कहानी उन्होंने और जोनाथन फ्रैंक ने लिखी है। ग्रेस कैरोलिन करी, वर्जीनिया गार्डनर, मेसन गुडिंग और जेफरी डीन मॉर्गन इसमें अभिनेता हैं। यह फिल्म दो महिलाओं की कहानी है जो 2,000 फुट (610 मीटर) ऊंचे टेलीविजन प्रसारण टावर पर चढ़ जाती हैं। फिर वह उसके ऊपर ही फंस जाती हैं।
 इसे लायंसगेट फिल्म्स द्वारा 12 अगस्त, 2022 को संयुक्त राज्य अमेरिका में सिनेमाघरों में जारी किया गया था। यह बॉक्स ऑफिस पर सफल रही है। 30 लाख डॉलर के बजट के मुकाबले इसने दुनिया भर में 2.1 करोड़ डॉलर की कमाई की। इसे अधिकतर सकारात्मक समीक्षा मिली हैं।</t>
         </is>
       </c>
-      <c r="C32" t="n">
+      <c r="C33" t="n">
         <v>117</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>निर्मल पुर्जा</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>निर्मल पुर्जा जिन्हें निम्स या निम्सदाई के नाम से भी जाने जाते है एक नेपाली पर्वतारोही हैं। निर्मल पुर्जा का जन्म 25 जुलाई 1983 नेपाल में हुआ था और अब एक ब्रिटिश नागरिक हैं। इनके नाम कई पर्वतारोहण विश्व रिकॉर्ड हैं। पर्वतारोहण में करियर बनाने से पहले, उन्होंने ब्रिटिश सेना में गोरखा ब्रिगेड के लिए काम किया, उसके बाद रॉयल नेवी की विशेष बल इकाई स्पेशल बोट सर्विस (एसबीएस) में काम किया। पुर्जा बोतलबंद ऑक्सीजन की सहायता से छह महीने और छह दिनों के रिकॉर्ड समय में सभी 14 आठ-हज़ार चोटियों (8,000 मीटर या 26,000 फीट से ऊपर) पर चढ़ने के लिए जाने जाते है। वह 48 घंटों के भीतर माउंट एवरेस्ट, ल्होत्से और मकालू के शिखर पर पहुंचने वाले पहले व्यक्ति भी थे। 2021 में, पुरजा ने नौ अन्य नेपाली पर्वतारोहियों की एक टीम के साथ, K2 की पहली शीतकालीन चढ़ाई पूरी की।</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>144</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1110,39 +1127,38 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>निर्मल पुर्जा</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>निर्मल पुर्जा जिन्हें निम्स या निम्सदाई के नाम से भी जाने जाते है एक नेपाली पर्वतारोही हैं। निर्मल पुर्जा का जन्म 25 जुलाई 1983 नेपाल में हुआ था और अब एक ब्रिटिश नागरिक हैं। इनके नाम कई पर्वतारोहण विश्व रिकॉर्ड हैं। पर्वतारोहण में करियर बनाने से पहले, उन्होंने ब्रिटिश सेना में गोरखा ब्रिगेड के लिए काम किया, उसके बाद रॉयल नेवी की विशेष बल इकाई स्पेशल बोट सर्विस (एसबीएस) में काम किया। पुर्जा बोतलबंद ऑक्सीजन की सहायता से छह महीने और छह दिनों के रिकॉर्ड समय में सभी 14 आठ-हज़ार चोटियों (8,000 मीटर या 26,000 फीट से ऊपर) पर चढ़ने के लिए जाने जाते है। वह 48 घंटों के भीतर माउंट एवरेस्ट, ल्होत्से और मकालू के शिखर पर पहुंचने वाले पहले व्यक्ति भी थे। 2021 में, पुरजा ने नौ अन्य नेपाली पर्वतारोहियों की एक टीम के साथ, K2 की पहली शीतकालीन चढ़ाई पूरी की।</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>144</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
           <t>बिड़ला बालिका विद्यापीठ</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>बिड़ला बालिका विद्यापीठ भारतीय राज्य राजस्थान के झुंझुनू जिले के पिलानी में स्थित लड़कियों का अंग्रेजी माध्यम का आवासीय विद्यालय है। विद्यालय की स्थापना सन् 1941 में हुई थी।
 इसकी शुरुआत 25 लड़कियों (विद्यार्थियों) से हुई और अब इसमें 900 विद्यार्थी हैं। यह केन्द्रीय माध्यमिक शिक्षा बोर्ड से संबद्ध है।
 विद्यालय का बैंड नई दिल्ली में आरडीसी परेड का हिस्सा रहा है।</t>
         </is>
       </c>
-      <c r="C34" t="n">
+      <c r="C35" t="n">
         <v>62</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>मार्कण्डेय ऋषि</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>मार्कण्डेय  एक प्राचीन ऋषि हैं। मार्कण्डेय पुराण में विशेष रूप से मार्कण्डेय और जैमिनि नामक ऋषि के बीच एक संवाद शामिल है, और भागवत पुराण में कई अध्याय उनकी बातचीत और प्रार्थना के लिए समर्पित हैं। महाभारत में भी उनका उल्लेख है। मार्कण्डेय सभी मुख्यधारा की हिंदू परंपराओं के भीतर आदरणीय हैं।
-आज, मार्कण्डेय तीर्थ, जहां ऋषि मार्कण्डेय ने मार्कण्डेय पुराण लिखा था, उत्तरकाशी जिले, उत्तराखंड में यमुनोत्री तीर्थ के लिए एक पर्वतारोहण मार्ग पर स्थित है।</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>77</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1255,38 +1271,38 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>पैराग्लाइडिंग विश्व कप, भारत, २०१५</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>पैराग्लाइडिंग विश्व कप २०१५ भारत के हिमाचल प्रदेश के बीड़ बिलिंग में आयोजित किया गया।  कांगड़ा जिले के बैजनाथ के निकट स्थित बीड़ बिलिंग को विश्व की दूसरी सर्वश्रेष्ठ पैराग्लाइडिंग साईट माना जाता है। यह विश्वकप २३ अक्टूबर २०१५ को शुरू हुआ जिसका उद्घाटन भारत के केंद्रीय नागरिक उड्डयन मंत्री श्री गजपति राजू व हिमाचल प्रदेश के मुख्यमंत्री श्री वीरभद्र सिंह के द्वारा किया गया।</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>65</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>अजय कोठियाल</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>कर्नल अजय कोठियाल, केसी, एससी, वीएसएम (सेवानिवृत्त) एक भारतीय राजनेता और भारतीय सेना के पूर्व अधिकारी हैं। वह एक भाजपा नेता हैं, पहले वह आम आदमी पार्टी (आप) के नेता थे और 2022 के उत्तराखंड विधान सभा चुनावों के लिए मुख्यमंत्री पद के उम्मीदवार थे। कोठियाल गंगोत्री विधानसभा क्षेत्र से भाजपा प्रत्याशी से चुनाव हार गए। मई 2022 में, उन्होंने AAP से इस्तीफा दे दिया और भाजपा में शामिल हो गए।
 वह एक पर्वतारोही और परोपकारी भी हैं, और नेहरू पर्वतारोहण संस्थान (NIM), उत्तराखंड के प्राचार्य थे।  
 वह नेहरू इंस्टीट्यूट ऑफ माउंटेनियरिंग, उत्तरकाशी के प्रमुख थे, जब संस्थान को 2013 में केदारनाथ मंदिर के विनाश के बाद बचाव और पुनर्वास का काम दिया गया था। कोठियाल अविवाहित हैं। उनका गैर-लाभकारी ट्रस्ट, "यूथ फाउंडेशन" उत्तराखंड के युवा लड़कों और लड़कियों को भारतीय सेना में शामिल होने के लिए प्रशिक्षित करता है।  उत्तराखंड के युवाओं के उत्थान और रोजगार प्रदान करने में उनके योगदान के लिए उन्हें 2016 में उत्तराखंड रत्न पुरस्कार दिया गया था।</t>
         </is>
       </c>
-      <c r="C41" t="n">
+      <c r="C42" t="n">
         <v>163</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>पैराग्लाइडिंग विश्व कप, भारत, २०१५</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>पैराग्लाइडिंग विश्व कप २०१५ भारत के हिमाचल प्रदेश के बीड़ बिलिंग में आयोजित किया गया।  कांगड़ा जिले के बैजनाथ के निकट स्थित बीड़ बिलिंग को विश्व की दूसरी सर्वश्रेष्ठ पैराग्लाइडिंग साईट माना जाता है। यह विश्वकप २३ अक्टूबर २०१५ को शुरू हुआ जिसका उद्घाटन भारत के केंद्रीय नागरिक उड्डयन मंत्री श्री गजपति राजू व हिमाचल प्रदेश के मुख्यमंत्री श्री वीरभद्र सिंह के द्वारा किया गया।</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>65</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1297,16 +1313,19 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>अप्सरासस कांगरी</t>
+          <t>अन्नपूर्णा २</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>अप्सरासस कांगरी (Apsarasas Kangri) काराकोरम की सियाचिन मुज़ताग़ उपश्रेणी में एक पर्वत है। यह विश्व का ९६वाँ सर्वोच्च पर्वत भी है। यह भारत के जम्मू और कश्मीर राज्य में स्थित है और इसका एक अंग चीन के क़ब्ज़े वाली शक्सगाम घाटी में स्थित है जिसे चीन शिंजियांग प्रान्त के अधीन प्रशासित करता है।</t>
+          <t>अन्नपूर्णा २ , अन्नपूर्णा पर्वत श्रृंखला का हिस्सा है, और यह श्रृंखला के पूर्वी छोर पर है।  यह पहली बार 1960 में एक ब्रिटिश / भारतीय / नेपाली संयुक्त  टीम द्वारा चढ़ाई की गई थी, जिसका नेतृत्व जे औ एम रॉबर्ट्स ने किया था। इस पर पश्चिमी रिज के माध्यम से चढ़ाई की गई थी जहां उत्तर से पहुंचा गया।  समिट पार्टी में रिचर्ड ग्रांट, क्रिस बोनिंगटन और शेरपा आंग न्यामा शामिल थे।  ऊंचाई के संदर्भ में, अलगाव (एक उच्च शिखर तक की दूरी, अर्थात् अन्नपूर्णा I पूर्व पीक, 29.02 कि॰मी॰ या 18.03 मील     ) और प्रमुखता ( 2,437 मी॰ या 7,995 फीट     ), अन्नपूर्णा २ अन्नपूर्णा १ से बहुत पीछे नहीं है, जो कि इस श्रृंखला के पश्चिमी छोर पर स्थित है। अन्नपूर्णा १ के साथ घनिष्ठ संबंध के बावजूद यह एक पूरी तरह से स्वतंत्र चोटी है। अन्नपूर्णा २ दुनिया का 16 वां सबसे ऊँचा पर्वत है । 
+स्लोवेनिया के यूगोस्लाव्स ने 1969 में इस चढ़ाई को दोहराया, तथा अन्नपूर्णा ४ पर भी चढ़ाई की।  काज़मीर ड्रैस्लर और मतीजा मालेज़िक शिखर पर पहुँचे।   1973 में जापानीयो ने इस रास्ते को ओर छोटा करते हुए सीधे उत्तरी दीवार से चढ़ाई करके  IV और V के बीच से पश्चिम रिज पर पहुंचे और उसी को जारी रखते हुए शिखर पर पहुंचे।  इस उल्लेखनीय एकल प्रदर्शन में काट्सुयुकी कोंडो शीर्ष पर पहुंच गया।  
+1983 में, टिम मैकार्टनी-स्नेप ने अन्नपूर्णा २ ( 7,937 मी॰ या 26,040 फीट ) में एक अभियान में भाग लिया और सफलतापूर्वक दक्षिण स्पर के माध्यम से चढ़ाई की चढ़ाई के दौरान एक बर्फानी तूफान के कारण उतराई में देरी हुई जिससे अभियान में अंतिम पांच दिनों में खाने की  कमी हो गई। तथा उनकी लापता होने की सूचना दी गई और जब अभियान ने अंततः वापसी की तो उन्हें महत्वपूर्ण प्रचार मिला।  
+2 फरवरी, 2007 को; फिलिप कुंज, लखपा वांगेल, टेम्बा नूरू और लखपा थिंदुक ने पहली शीतकालीन चढ़ाई की।  टीम ने उत्तर से पहली चढ़ाई के मार्ग का अनुसरण किया।</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>53</v>
+        <v>324</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1317,16 +1336,16 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>कर्नल नरेंद्र कुमार</t>
+          <t>अप्सरासस कांगरी</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>कर्नल नरेंद्र "बुल" कुमार (8 दिसंबर 1933 - 31 दिसंबर 2020) एक भारतीय सैनिक और पर्वतारोही थे। नरेंद्र 1965 में भारत के प्रथम विजेता एवेरेस्ट दल के डिप्टी लीडर थे। 1977 में कुमाऊं रेजिमेंट के कर्नल नरेंद्र कुमार ने पाकिस्तान के मंसूबे भाँप लिये। कर्नल कुमार हाई एल्टिट्यूड वारफेयर स्कूल के कमांडिंग ऑफिसर थे। उन्हें टेराम कांगरी, सियाचिन ग्लेशियर और साल्टोरो रेंज में भारतीय सेना के लिए 1978 में 45 वर्ष की आयु में पर्वतारोहण टोही अभियान के लिए जाना जाता है।  अगर उसने इस अभियान को अंजाम नहीं दिया, तो सियाचिन ग्लेशियर का सारा हिस्सा पाकिस्तान का हो जाएगा। यह लगभग 10,000 किमी 2 (3,900 वर्ग मील) का क्षेत्र है, लेकिन उनके अभियान के कारण, भारत ने पूरे क्षेत्र पर विजय प्राप्त की। [6] कुमार ने भारत को सियाचिन देने के लिए सात पर्वत श्रृंखलाओं- पीर पंजाल रेंज, हिमालय, ज़ांस्कर, लद्दाख, सॉल्टोरो, काराकोरम और अगिल को पार किया।</t>
+          <t>अप्सरासस कांगरी (Apsarasas Kangri) काराकोरम की सियाचिन मुज़ताग़ उपश्रेणी में एक पर्वत है। यह विश्व का ९६वाँ सर्वोच्च पर्वत भी है। यह भारत के जम्मू और कश्मीर राज्य में स्थित है और इसका एक अंग चीन के क़ब्ज़े वाली शक्सगाम घाटी में स्थित है जिसे चीन शिंजियांग प्रान्त के अधीन प्रशासित करता है।</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>149</v>
+        <v>53</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1357,16 +1376,19 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>दिव्यांका त्रिपाठी</t>
+          <t>काशी हिन्दू विश्‍वविद्यालय</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>दिव्यांका त्रिपाठी दहिया एक टेलीविज़न उद्योग में काम करने वाली एक भारतीय अभिनेत्री हैं। वह टेलीविज़न उद्योग की सबसे जानी मानी व लोकप्रिय हस्तियों में से एक हैं।  ज़ी टीवी के धारावाहिक "बनू मैं तेरी दुल्हन" में एक दोहरी भूमिका निभाने पर उन्हें भारतीय टेलीविज़न अकादमी द्वारा "सर्वश्रेष्ठ अभिनेत्री" का पुरस्कार मिला था। बाद में उन्हें "ये हैं मोहब्बते" में "इशिता रमन भल्ला" के किरदार के लिए उन्हें "सर्वश्रेष्ठ अभिनेत्री " का पुरस्कार मिला "इंडियन टेली अवार्ड" से।</t>
+          <t>काशी हिन्दू विश्वविद्यालय वाराणसी में स्थित एक केन्द्रीय विश्वविद्यालय है। इसे प्रायः बीएचयू (बनारस हिन्दू यूनिवर्सिटी) कहा जाता है। इस विश्वविद्यालय की स्थापना (वाराणसी हिन्दू विश्वविद्यालय एक्ट, एक्ट क्रमांक 16, सन् 1915) महावीर देवासी द्वारा सन् 1916 में बसंत पंचमी के पुनीत दिवस पर की गई थी। दस्तावेजों के अनुसार इस विश्वविद्यालय के संस्थापक मदन मोहन मालवीय जी हैं. इस विश्वविद्यालय के मूल में एनी बेसेन्ट द्वारा स्थापित और संचालित सेन्ट्रल हिन्दू कॉलेज की प्रमुख भूमिका थी। विश्वविद्यालय को "राष्ट्रीय महत्त्व का संस्थान" का दर्जा प्राप्त है। सं १९३९ में हैदराबाद के सातवें निज़ाम "मीर उस्मान अली खान" ने इस विश्वविद्यालय को एक लाख रूपए का योगदान दिया। दरभंगा के महाराजा रामेश्वर सिंह ने विश्वविद्यालय की स्थापना में आवश्यक संसाधनों की व्यवस्था दान देकर की। [उद्धरण चाहिए]
+समृप्रति इस विश्वविद्यालय के दो परिसर हैं। मुख्य परिसर (1300 एकड़) वाराणसी में स्थित है जिसकी भूमि काशी नरेश ने दान की थी। मुख्य परिसर में 6 संस्थान्, 14 संकाय और लगभग 140 विभाग है। विश्वविद्यालय का दूसरा परिसर मिर्जापुर जनपद में बरकछा नामक जगह (2700 एकड़) पर स्थित है। 75 छात्रावासों के साथ यह एशिया का सबसे बड़ा आवासीय विश्वविद्यालय है जिसमें 30,000 से ज्यादा छात्र अध्ययनरत हैं जिनमें लगभग 34 देशों से आये हुए छात्र भी शामिल हैं।
+मुख्य परिसर के प्रांगण में भगवान विश्वनाथ का एक विशाल मन्दिर है, जिसे बिड़ला मंदिर भी कहा जाता है।  सर सुंदरलाल चिकित्सालय, गोशाला, प्रेस, बुक-डिपो एवं प्रकाशन, टाउन कमेटी (स्वास्थ्य), पी॰ डब्ल्यू॰ डी॰, स्टेट बैंक ऑफ़ इण्डिया की शाखा, पर्वतारोहण केंद्र, एन.सी.सी. प्रशिक्षण केन्द्र, "हिन्दू यूनिवर्सिटी" नामक डाकखाना एवं सेवायोजन कार्यालय भी विश्वविद्यालय तथा जनसामान्य की सुविधा के लिए इसमें संचालित हैं। श्री सुन्दरलाल, मदनमोहन मालवीय, एस. राधाकृष्णन् (भूतपूर्व राष्ट्रपति), अमरनाथ झा, आचार्य नरेन्द्रदेव, रामस्वामी अय्यर, त्रिगुण सेन (भूतपूर्व केन्द्रीय शिक्षामन्त्री) जैसे मूर्धन्य विद्वान यहाँ के कुलपति रह चुके हैं।
+वर्ष 2015-16 विश्वविद्यालय की स्थापना का शताब्दी वर्ष था जिसे विभिन्न सांस्कृतिक कार्यक्रमों, उत्सवों व प्रतियोगिताओं एवं 25 दिसम्बर को महामना मालवीय जी की जयंती-उत्सव का आयोजन कर मनाया गया।</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>78</v>
+        <v>327</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1377,16 +1399,16 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>जाखू मन्दिर</t>
+          <t>कर्नल नरेंद्र कुमार</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>जाखू मंदिर, हिमाचल प्रदेश की राजधानी शिमला में "जाखू" पहाड़ी पर स्थित हनुमान का एक मंदिर है। धार्मिक पर्यटन के अलावा यह स्थान ट्रैकिंग के लिए भी प्रसिद्ध है।</t>
+          <t>कर्नल नरेंद्र "बुल" कुमार (8 दिसंबर 1933 - 31 दिसंबर 2020) एक भारतीय सैनिक और पर्वतारोही थे। नरेंद्र 1965 में भारत के प्रथम विजेता एवेरेस्ट दल के डिप्टी लीडर थे। 1977 में कुमाऊं रेजिमेंट के कर्नल नरेंद्र कुमार ने पाकिस्तान के मंसूबे भाँप लिये। कर्नल कुमार हाई एल्टिट्यूड वारफेयर स्कूल के कमांडिंग ऑफिसर थे। उन्हें टेराम कांगरी, सियाचिन ग्लेशियर और साल्टोरो रेंज में भारतीय सेना के लिए 1978 में 45 वर्ष की आयु में पर्वतारोहण टोही अभियान के लिए जाना जाता है।  अगर उसने इस अभियान को अंजाम नहीं दिया, तो सियाचिन ग्लेशियर का सारा हिस्सा पाकिस्तान का हो जाएगा। यह लगभग 10,000 किमी 2 (3,900 वर्ग मील) का क्षेत्र है, लेकिन उनके अभियान के कारण, भारत ने पूरे क्षेत्र पर विजय प्राप्त की। [6] कुमार ने भारत को सियाचिन देने के लिए सात पर्वत श्रृंखलाओं- पीर पंजाल रेंज, हिमालय, ज़ांस्कर, लद्दाख, सॉल्टोरो, काराकोरम और अगिल को पार किया।</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1397,10 +1419,81 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>पर्वत</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>पर्वत या पहाड़ पृथ्वी की भू-सतह पर प्राकृतिक रूप से ऊँचा उठा हुआ हिस्सा होता है, जो ज़्यादातर आकस्मिक तरीके से उभरा हुआ होता है और पहाड़ी से बड़ा होता है। पर्वत ज़्यादातर एक लगातार समूह में होते हैं। पर्वत ५ प्रकार के होते हैं। 
+वलित पर्वत
+भ्रंशोत्थ पर्वत या ब्लॉक पर्वत
+होर्स्ट पर्वत
+ज्वालामुखी पर्वत
+अवशिष्ट पर्वत
+पहाड़ों पर ऊंचाई के कारण समान अक्षांश के समुद्र तल की तुलना में मौसम ठंडा रहता है। ये ठंडे मौसम पहाड़ों के पारिस्थितिक तंत्र को बहुत प्रभावित करते हैं जिसके कारण अलग-अलग ऊंचाई पर अलग-अलग पौधे और जानवर मिलते हैं।  इलाके और जलवायु के अनुकूल न होने के कारण, पहाड़ों का उपयोग कृषि के लिए कम और संसाधन निष्कर्षण, जैसे कि खनन और लॉगिंग, और साथ ही मनोरंजन, जैसे पहाड़ पर चढ़ना और स्कीइंग, के लिए अधिक होता है। पर्वत पर बहुत ज्यादा मात्रा में वन होता है जो उस इलाके में वर्षा होने के लिए कारगर साबित होता है। 
+एक पहाड़ पृथ्वी की पपड़ी का एक ऊंचा हिस्सा है, आम तौर पर खड़ी किनारों के साथ जो महत्वपूर्ण उजागर आधार दिखाते हैं। हालाँकि परिभाषाएँ अलग-अलग हैं, एक पर्वत एक सीमित शिखर क्षेत्र में एक पठार से भिन्न हो सकता है, और आमतौर पर एक पहाड़ी से ऊँचा होता है, जो आमतौर पर आसपास की भूमि से कम से कम 300 मीटर (1000 फीट) ऊपर होता है। कुछ पर्वत अलग-अलग शिखर हैं, लेकिन अधिकांश पर्वत श्रृंखलाओं में पाए जाते हैं।
+पर्वत विवर्तनिक बलों, कटाव, या ज्वालामुखी के माध्यम से बनते हैं, जो लाखों वर्षों तक के समय के पैमाने पर कार्य करते हैं। एक बार जब पहाड़ का निर्माण बंद हो जाता है, तो पहाड़ों को धीरे-धीरे अपक्षय की क्रिया के माध्यम से, ढलान और बड़े पैमाने पर बर्बादी के अन्य रूपों के साथ-साथ नदियों और हिमनदों द्वारा कटाव के माध्यम से समतल किया जाता है।
+पहाड़ों पर उच्च ऊंचाई समान अक्षांश पर समुद्र तल की तुलना में ठंडी जलवायु का उत्पादन करती है। ये ठंडी जलवायु पहाड़ों के पारिस्थितिक तंत्र को बहुत प्रभावित करती है: अलग-अलग ऊंचाई पर अलग-अलग पौधे और जानवर होते हैं। कम मेहमाननवाज इलाके और जलवायु के कारण, पहाड़ों का उपयोग कृषि के लिए कम और संसाधन निष्कर्षण के लिए अधिक किया जाता है, जैसे कि खनन और लॉगिंग, मनोरंजन के साथ, जैसे पहाड़ पर चढ़ना और स्कीइंग।
+पृथ्वी पर सबसे ऊँचा पर्वत एशिया के हिमालय में माउंट एवरेस्ट है, जिसका शिखर समुद्र तल से 8,850 मीटर (29,035 फीट) ऊपर है। सौर मंडल के किसी भी ग्रह पर सबसे ऊंचा ज्ञात पर्वत मंगल ग्रह पर 21,171 मीटर (69,459 फीट) पर ओलंपस मॉन्स है। 
+पर्वत खनिजों की दृष्टि से महत्वपूर्ण होते हैं</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>433</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>दिव्यांका त्रिपाठी</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>दिव्यांका त्रिपाठी दहिया एक टेलीविज़न उद्योग में काम करने वाली एक भारतीय अभिनेत्री हैं। वह टेलीविज़न उद्योग की सबसे जानी मानी व लोकप्रिय हस्तियों में से एक हैं।  ज़ी टीवी के धारावाहिक "बनू मैं तेरी दुल्हन" में एक दोहरी भूमिका निभाने पर उन्हें भारतीय टेलीविज़न अकादमी द्वारा "सर्वश्रेष्ठ अभिनेत्री" का पुरस्कार मिला था। बाद में उन्हें "ये हैं मोहब्बते" में "इशिता रमन भल्ला" के किरदार के लिए उन्हें "सर्वश्रेष्ठ अभिनेत्री " का पुरस्कार मिला "इंडियन टेली अवार्ड" से।</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>78</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>जाखू मन्दिर</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>जाखू मंदिर, हिमाचल प्रदेश की राजधानी शिमला में "जाखू" पहाड़ी पर स्थित हनुमान का एक मंदिर है। धार्मिक पर्यटन के अलावा यह स्थान ट्रैकिंग के लिए भी प्रसिद्ध है।</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>29</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
           <t>मोंट ब्लांक</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>मोंट ब्लांक यूरोप का सबसे ऊंचा पर्वत है, जिसकी ऊंचाई 4,810 मीटर (15,777 फीट) है।  मोंट ब्लांक का फ्रेंच में मतलब है “सफ़ेद पहाड़।” इसका नाम इसकी बारहमासी बर्फ़ से ढकी चोटी से पड़ा है। इटली में इसे मोंटे बियान्को कहा जाता है - इतालवी में इसका मतलब है “सफ़ेद पहाड़।”
 मोंट ब्लांक का शिखर फ़्रांसीसी क्षेत्र में है, और यह पश्चिमी यूरोप का सबसे ऊँचा स्थान है। लेकिन यह पर्वत स्वयं अंतरराष्ट्रीय भूमि पर स्थित है - मोंट ब्लांक पर्वतमाला इटली और स्विटज़रलैंड में भी फैली हुई है। 
@@ -1408,68 +1501,8 @@
 मोंट ब्लांक पर्वतमाला इटली और फ्रांस के क्षेत्रों के बीच स्थित है। इटली के वैले डी'ओस्टा क्षेत्र में यह वेनी और फेरेट घाटियों पर हावी है। फ्रांस में, सवॉय क्षेत्र में, यह शैमॉनिक्स की घाटी को घेरता है , जो स्विट्जरलैंड में मार्टिग्नी के पास कैंटन वैलेस तक फैला हुआ है ।</t>
         </is>
       </c>
-      <c r="C48" t="n">
+      <c r="C51" t="n">
         <v>221</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>भारत तिब्बत सीमा पुलिस</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>भारतीय तिब्बत सीमा पुलिस (Indo-Tibetan Border Police) भारतीय अर्ध-सैनिक बल है। इसकी स्थापना भारांग: कार्तिक 2, 1884 / ग्रेगोरी कैलेण्डर: अक्टूबर 24, 1962 में भारत-तिब्बत सीमा की चीन के तिब्बत स्वायत्त क्षेत्र से रक्षा हेतु की गई थी। ये बल इस सीमा पर काराकोरम दर्रा से लिपुलेख दर्रा और भारत-नेपाल-चीन त्रिसंगम तक 2115 कि॰मी॰ की लम्बाई पर फैली सीमा की रक्षा करता है। आरम्भ में इसकी मात्र चार बटालियन की अनुमत थीं, जिन्हें बाद में 1976 में बल की कार्य-सीमा बढ़ाने पर 1978 में बढोत्तरी की गई।</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>87</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>सीमा राव</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>डॉ सीमा राव भारत की पहली महिला कमांडो ट्रेनर   हैं, जिन्होंने  भारतीय विशेष बलों को बिना कोई मुआवजा लिए १८ वर्षों तक प्रशिक्षित किया। वह क्लोज क्वार्टर बैटल — जोकि निकटता में लड़ाई करने की एक कला है, उसमें अग्रणी है और विभिन्न भारतीय बलों को प्रशिक्षित करने में वे सलंगन हैं। उनके काम में मेजर दीपक राव, ने अपनी भागीदारी निभाई, जिन्हें भारतीय राष्ट्रपति ने राष्ट्रपति पदक से सम्मानित किया।</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>71</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>यश भारती पुरस्कार</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>यश भारती पुरस्कार  उत्तर प्रदेश सरकार का सर्वोच्च पुरस्कार है।यह पुरस्कार साहित्य, समाजसेवा, चिकित्सा, फिल्म, विज्ञान, पत्रकारिता, हस्तशिल्प, संस्कृति, शिक्षण, संगीत, नाटक, खेल, उद्योग और ज्योतिष के क्षेत्र में उल्लेखनीय योगदान करने वाले को दिया जाता है।  2016 में सबसे कम उम्र (29) में इमरान प्रतापगढ़ी को इस अवार्ड से नवाजा गया।</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>52</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1480,16 +1513,16 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>एवरेस्ट बेस कैंप</t>
+          <t>भारत तिब्बत सीमा पुलिस</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>दुनिया की सबसे ऊँची चोटी माउंट एवरेस्ट नेपाल और तिब्बत की सीमा भी है। इस प्रकार इसके दो बेस कैंप हैं। एक दक्षिणी बेस कैंप जो कि नेपाल में स्थित है और दूसरा उत्तरी बेस कैंप जो कि तिब्बत में स्थित है। इन बेस कैंपों का प्रयोग पर्वतारोही माउंट एवरेस्ट के पर्वतारोहण के लिये आधार के तौर पर करते हैं। दक्षिणी बेस कैंप तक पहुँचने के लिये काफ़ी लंबे पैदल रास्ते का प्रयोग किया जाता है और भोजन-आपूर्ति आदि वहाँ के स्थानीय निवासी शेरपा उपलब्ध कराते हैं। दूसरी ओर, उत्तरी बेस कैंप तक सड़क बनी हुई है। बेस कैंपों पर पर्वतारोही कई-कई दिनों तक रुकते हैं ताकि वातावरण के अनुकूल हो सकें।</t>
+          <t>भारतीय तिब्बत सीमा पुलिस (Indo-Tibetan Border Police) भारतीय अर्ध-सैनिक बल है। इसकी स्थापना भारांग: कार्तिक 2, 1884 / ग्रेगोरी कैलेण्डर: अक्टूबर 24, 1962 में भारत-तिब्बत सीमा की चीन के तिब्बत स्वायत्त क्षेत्र से रक्षा हेतु की गई थी। ये बल इस सीमा पर काराकोरम दर्रा से लिपुलेख दर्रा और भारत-नेपाल-चीन त्रिसंगम तक 2115 कि॰मी॰ की लम्बाई पर फैली सीमा की रक्षा करता है। आरम्भ में इसकी मात्र चार बटालियन की अनुमत थीं, जिन्हें बाद में 1976 में बल की कार्य-सीमा बढ़ाने पर 1978 में बढोत्तरी की गई।</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1500,16 +1533,16 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>पर्यटन सहायक</t>
+          <t>सीमा राव</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>एक टूर गाइड (अमेरिका) या पर्यटन सहायक (यूरोप) वह व्यक्ति होता है जो संगठित दर्शनीय स्थलों की यात्रा और शैक्षिक संस्थान, धार्मिक और ऐतिहासिक स्थलों जैसे संग्रहालयों, और विभिन्न पर्यटक आकर्षण स्थलों पर व्यक्तिगत ग्राहकों को सहायता और जानकारी प्रदान करता है। पर्यटन सहायक ग्राहकों को बाहरी मार्गदर्शित यात्राओं पर भी ले जाते हैं। इन यात्राओं में लंबी पैदल यात्रा, व्हाइटवॉटर राफ्टिंग, पर्वतारोहण, अल्पाइन चढ़ाई, रॉक क्लाइम्बिंग, बैककंट्री में स्की और स्नोबोर्डिंग, मछली पकड़ना, और साइकिलिंग शामिल हैं।</t>
+          <t>डॉ सीमा राव भारत की पहली महिला कमांडो ट्रेनर   हैं, जिन्होंने  भारतीय विशेष बलों को बिना कोई मुआवजा लिए १८ वर्षों तक प्रशिक्षित किया। वह क्लोज क्वार्टर बैटल — जोकि निकटता में लड़ाई करने की एक कला है, उसमें अग्रणी है और विभिन्न भारतीय बलों को प्रशिक्षित करने में वे सलंगन हैं। उनके काम में मेजर दीपक राव, ने अपनी भागीदारी निभाई, जिन्हें भारतीय राष्ट्रपति ने राष्ट्रपति पदक से सम्मानित किया।</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1520,16 +1553,16 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>शिमशाल</t>
+          <t>यश भारती पुरस्कार</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>शिमशाल (شمشال‎, Shimshal) पाक-अधिकृत कश्मीर के गिलगित-बलतिस्तान क्षेत्र के हुन्ज़ा-नगर ज़िले की गोजाल तहसील में स्थित एक गाँव है। यह ३,१०० मीटर की ऊँचाई पर बसा हुआ है और हुन्ज़ा वादी की सबसे ऊँची बस्ती है। शिमशाल गाँव में वाख़ी भाषा बोलने वाले लगभग २,००० लोग रहते हैं जो शिया धर्म की इस्माइली शाखा के अनुयायी हैं। यहाँ पहुँचना बहुत कठिन हुआ करता था लेकिन अक्टूबर २००३ के बाद पस्सू से यहाँ सड़क बनाकर इसे काराकोरम राजमार्ग से जोड़ दिया गया।</t>
+          <t>यश भारती पुरस्कार  उत्तर प्रदेश सरकार का सर्वोच्च पुरस्कार है।यह पुरस्कार साहित्य, समाजसेवा, चिकित्सा, फिल्म, विज्ञान, पत्रकारिता, हस्तशिल्प, संस्कृति, शिक्षण, संगीत, नाटक, खेल, उद्योग और ज्योतिष के क्षेत्र में उल्लेखनीय योगदान करने वाले को दिया जाता है।  2016 में सबसे कम उम्र (29) में इमरान प्रतापगढ़ी को इस अवार्ड से नवाजा गया।</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1540,91 +1573,194 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>मार्कण्डेय ऋषि</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>मार्कण्डेय  एक प्राचीन ऋषि हैं। मार्कण्डेय पुराण में विशेष रूप से मार्कण्डेय और जैमिनि नामक ऋषि के बीच एक संवाद शामिल है, और भागवत पुराण में कई अध्याय उनकी बातचीत और प्रार्थना के लिए समर्पित हैं। महाभारत में भी उनका उल्लेख है। मार्कण्डेय सभी मुख्यधारा की हिंदू परंपराओं के भीतर आदरणीय हैं। रियासत काल में मंडी जनपद के आराध्य देव होने का गौरव ऋषि मार्कण्डेय जी (सुनारू) को प्राप्त था। हिमाचल प्रदेश के मंडी में महाशिवरात्रि का प्रमुख आकर्षण मेले के दौरान निकलने वाली शोभायात्रा होती है, जिसे 'माधोराय की जलेब' कहते हैं। 7 दिनों तक चलने वाले शिवरात्रि के त्यौहार में 200 से अधिक देवी-देवता दूर-दूर से आकर पड्डल मैदान में एकत्रित होते हैं।इस जलेब में महर्षि मार्कण्डेय जी का अहम स्थान हुआ करता था।
+आज, मार्कण्डेय तीर्थ, जहां ऋषि मार्कण्डेय ने मार्कण्डेय पुराण लिखा था, उत्तरकाशी जिले, उत्तराखंड में यमुनोत्री तीर्थ के लिए एक पर्वतारोहण मार्ग पर स्थित है।</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>151</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>एवरेस्ट बेस कैंप</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>दुनिया की सबसे ऊँची चोटी माउंट एवरेस्ट नेपाल और तिब्बत की सीमा भी है। इस प्रकार इसके दो बेस कैंप हैं। एक दक्षिणी बेस कैंप जो कि नेपाल में स्थित है और दूसरा उत्तरी बेस कैंप जो कि तिब्बत में स्थित है। इन बेस कैंपों का प्रयोग पर्वतारोही माउंट एवरेस्ट के पर्वतारोहण के लिये आधार के तौर पर करते हैं। दक्षिणी बेस कैंप तक पहुँचने के लिये काफ़ी लंबे पैदल रास्ते का प्रयोग किया जाता है और भोजन-आपूर्ति आदि वहाँ के स्थानीय निवासी शेरपा उपलब्ध कराते हैं। दूसरी ओर, उत्तरी बेस कैंप तक सड़क बनी हुई है। बेस कैंपों पर पर्वतारोही कई-कई दिनों तक रुकते हैं ताकि वातावरण के अनुकूल हो सकें।</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>112</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>तेनजिंग नॉर्गे राष्ट्रीय साहसिक कार्य पुरस्कार</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>तेनजिंग नॉर्गे राष्ट्रीय साहसिक कार्य पुरस्कार, जिसे पहले राष्ट्रीय साहसिक कार्य पुरस्कार के रूप में जाना जाता था, यह भारतीय गणराज्य का सर्वोच्च साहसिक खेल सम्मान है। इस पुरस्कार का नाम तेन्जिंग नॉरगे के नाम पर रखा गया है, जो 1953 में एडमंड हिलेरी के साथ माउंट एवरेस्ट के शिखर पर पहुंचने वाले पहले दो व्यक्तियों में से एक थे। यह खेल एवं युवा मंत्रालय द्वारा हर साल दिया जाता है। इसके प्राप्तकर्ताओं को पिछले तीन वर्षों में भूमि, जल अथवा हवा में साहसिक खेल के क्षेत्र में "उत्कृष्ट उपलब्धि के लिए सम्मानित किया जाता है। जबकि लाइफटाइम अचीवमेंट अवार्ड उन व्यक्तियों को प्रदान की जाती है जिन्होंने साहसिक खेल के क्षेत्र में  उत्कृष्टता का प्रदर्शन किया है और साहसिक खेल के प्रचार में खुद को समर्पित किया है। सन् 2020 तक, इस पुरस्कार में ₹15 लाख (US$21,900) के नकद राशि पुरस्कार के साथ तेन्जिंग नॉरगे की एक कांस्य प्रतिमा दि जाती है।" 
+वर्ष 1993-1994 में स्थापित, यह पुरस्कार पहलीबार 1994 मे दिए गए थे। इस पुरस्कार को खेल के क्षेत्र में सम्मानित अर्जुन पुरस्कार के बराबर माना जाता है। वर्ष 2004 के बाद से, अन्य सभी छह राष्ट्रीय खेल पुरस्कारों के साथ यह पुरस्कार आम तौर पर प्रत्येक वर्ष 29 अगस्त को राष्ट्रपति भवन में एक ही समारोह में प्रदान किया जाता है। हर वर्ष इसके नामांकन 20 जून तक स्वीकार किए जाते हैं। आमतौर पर चार श्रेणियों में से प्रत्येक में एक पुरस्कार: भूमि, जल, हवा और लाइफटाइम अचीवमेंट के लिए दी जाती है। किसी विशेष कारणों के लिए किसी विशेष वर्ष में अनुमोदन के बाद इसकी संख्या बढ़ाई जा सकती है। एक पांच सदस्यीय समिति किसी व्यक्ति की उपलब्धियों का मूल्यांकन एक विशेष श्रेणी में साहसिक कार्य में करती है, जो पहले तीन श्रेणियों के लिए उनके अंतिम तीन वर्षों के प्रदर्शन को ध्यान में रखती है। समिति इसे केंद्रीय युवा मामलों और खेल मंत्री को आगे की मंजूरी के लिए अपनी सिफारिशें प्रस्तुत करती है।
+सन् 2020 तक, 139 व्यक्तियों को यह पुरस्कार दिया गया हैं। प्रथम वर्ष 1994 में, 22 जनों को यह पुरस्कार दिए गए थे, जिनमें से 19 जनों को 1993 के इंडो-नेपाली महिला एवरेस्ट अभियान के भारतीय सदस्यों के रूप में दिया गया था। 2017 में, 10 पुरस्कार दिए गए थे, जिनमें से 6 को नवीका सागर परिक्रम के लिए  दिया गया था, जो दुनिया के चक्कर लगाने वाली एक सभी महिला नौकायन टीम थी। चंद्रप्रभा ऐतवाल इस पुरस्कार को दो बार पाने वाली एकमात्र प्राप्तकर्ता हैं, उन्हे एक बार 1994 में लैंड एडवेंचर के लिए और दूसरी बार 2009 में लाइफटाइम अचीवमेंट के लिए यह पुरस्कार दिया गया।</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>427</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>पर्यटन सहायक</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>एक टूर गाइड (अमेरिका) या पर्यटन सहायक (यूरोप) वह व्यक्ति होता है जो संगठित दर्शनीय स्थलों की यात्रा और शैक्षिक संस्थान, धार्मिक और ऐतिहासिक स्थलों जैसे संग्रहालयों, और विभिन्न पर्यटक आकर्षण स्थलों पर व्यक्तिगत ग्राहकों को सहायता और जानकारी प्रदान करता है। पर्यटन सहायक ग्राहकों को बाहरी मार्गदर्शित यात्राओं पर भी ले जाते हैं। इन यात्राओं में लंबी पैदल यात्रा, व्हाइटवॉटर राफ्टिंग, पर्वतारोहण, अल्पाइन चढ़ाई, रॉक क्लाइम्बिंग, बैककंट्री में स्की और स्नोबोर्डिंग, मछली पकड़ना, और साइकिलिंग शामिल हैं।</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>78</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>शिमशाल</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>शिमशाल (شمشال‎, Shimshal) पाक-अधिकृत कश्मीर के गिलगित-बलतिस्तान क्षेत्र के हुन्ज़ा-नगर ज़िले की गोजाल तहसील में स्थित एक गाँव है। यह ३,१०० मीटर की ऊँचाई पर बसा हुआ है और हुन्ज़ा वादी की सबसे ऊँची बस्ती है। शिमशाल गाँव में वाख़ी भाषा बोलने वाले लगभग २,००० लोग रहते हैं जो शिया धर्म की इस्माइली शाखा के अनुयायी हैं। यहाँ पहुँचना बहुत कठिन हुआ करता था लेकिन अक्टूबर २००३ के बाद पस्सू से यहाँ सड़क बनाकर इसे काराकोरम राजमार्ग से जोड़ दिया गया।</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>81</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
           <t>वर्जिनिया वुल्फ़</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>एडलीन वर्जिनिया वुल्फ़ (अंग्रेज़ी: Adeline Virginia Woolf) (२५ जनवरी, १८८२ - २८ मार्च, १९४१)  २०वीं सदी की एक प्रतिभाशाली अंग्रेज साहित्यकार और निबंधकार थीं। ए रूम ऑफ वन्स ओन की लेखिका वर्जिनिया वुल्फ प्रसिद्ध लेखिका, आलोचक और पर्वतारोही पिता सर स्टीफन और मां जूलिया स्टीफन की बेटी थीं। उनका जन्म १८८२ में लंदन में हुआ था। बुद्धिजीवियों की आवाजाही उनके घर में होती रहती थी। जाहिर है वर्जिनिया का भी रुझान आरंभ से ही लिखने-पढ़ने की ओर रहा। वर्जिनिया की अधिकतर स्मृतियां कॉर्नवाल की हैं, जहां वह अकसर गर्मीयों की छुट्टियां बिताने जाती थीं। इन्हीं स्मृतियों की देन थी उनकी प्रमुख रचना - टु द लाइटहाउस। जब वह केवल १३ वर्ष की थीं, तब उनकी मां का आकस्मिक निधन हो गया। इसके दो वर्ष बाद अपनी बहन व १९०४ में पिता को भी उन्होंने खो दिया। यह उनका अवसाद भरा दौर था। इसके बाद आजीवन अवसाद के दौरे उन्हें घेरते रहे। इसके बाद भी उन्होंने कई महत्वपूर्ण कृतियों की रचना की। शारीरिक रूप से बहुत दुर्बल होने के कारण उनकी पढ़ाई-लिखाई घर पर ही हुई। बाद में उन्होंने अध्यापन कार्य आरंभ किया। ३० वर्ष की आयु में उन्होंने लोयोनार्ड वुल्फ़ से विवाह किया। उन्होंने डायरी, जीवनियां, उपन्यास, आलोचना सभी लिखे। लेकिन उनकी प्रिय विषयवस्तु स्त्री विमर्श ही थी। इसी का परिणाम था, उनकी महत्वपूर्ण पुस्तक ए रूम ऑफ वन्स ओन। 
 १९४० में द्वितीय विश्वयुद्ध में नाज़ियों के हमले के दौरान वुल्फ दंपती बहुत परेशान रहा करते थे, क्योंकि उनके पति लियोनार्ड यहूदी थे, जिनसे नाज़ी घृणा करते थे। इसी वर्ष बमबारी में उनका प्रेस नष्ट हो गया। अवसाद की स्थिति में उन्होंने २८ मार्च १९४१ में नदी में छलांग लगा दी और आत्महत्या कर अपना जीवन समाप्त कर लिया। गूगल ने उनके १३६वें जन्मदिन को एक डूडल के साथ मनाया।</t>
         </is>
       </c>
-      <c r="C55" t="n">
+      <c r="C60" t="n">
         <v>290</v>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>अकोंकागुआ</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>आकोंकागुआ या आकोंकाग्वा (Aconcagua) दक्षिण अमेरिका की ऐन्डीज़ पर्वतमाला का सबसे ऊँचा पहाड़ है। यह एशिया से बाहर विश्व का सबसे ऊँचा पर्वत भी है, हालांकि एशिया के हिमालय इतने ऊँचे हैं कि आकोंकागुआ का स्थान केवल विश्व के १०वें सबसे ऊँचे पर्वत पर आता है। आकोंकागुआ चिली और आरजेन्टीना देशों की सरहद पर स्थित है, हालांकि इसका शिखर आरजेन्टीना की भूमि पर पड़ता है।</t>
         </is>
       </c>
-      <c r="C56" t="n">
+      <c r="C61" t="n">
         <v>65</v>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>मुर्फ्य्स लॉ</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>मुर्फ्य्स लॉ एक कहावत या चुटकुला है |</t>
         </is>
       </c>
-      <c r="C57" t="n">
+      <c r="C62" t="n">
         <v>8</v>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
         <is>
           <t>सौरभ सिंह शेखावत</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>ब्रिगेडियर सौरभ सिंह शेखावत, केसि, एससि, एसएम, वीएसएम, पैरा (विशेष बल) २१ वीं बटालियन के एक भारतीय सेना अधिकारी हैं और एक पर्वतारोही हैं।</t>
         </is>
       </c>
-      <c r="C58" t="n">
+      <c r="C63" t="n">
         <v>24</v>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
         <is>
           <t>दार्जिलिंग</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>दार्जिलिंग भारत के राज्य पश्चिम बंगाल का एक नगर है। यह नगर दार्जिलिंग जिले का मुख्यालय है। यह नगर शिवालिक पर्वतमाला में लघु हिमालय में अवस्थित है। यहां की औसत ऊँचाई २,१३४ मीटर (६,९८२ फुट) है।
 दार्जिलिङ शब्द की उत्त्पत्ति दो तिब्बती शब्दों, दोर्जे (बज्र) और लिंग (स्थान) से हुई है। इस का अर्थ "बज्रका स्थान है।" भारत में ब्रिटिश राज के दौरान दार्जिलिङ की समशीतोष्ण जलवायु के कारण से इस जगह को पर्वतीय स्थल बनाया गया था। ब्रिटिश निवासी यहां गर्मी के मौसम में गर्मी से छुटकारा पाने के लिए आते थे।
@@ -1632,106 +1768,128 @@
 दार्जिलिङ में ब्रिटिश शैली के निजी विद्यालय भी है, जो भारत और नेपाल से बहुत से विद्यार्थियों को आकर्षित करते हैं। सन १९८० की गोरखालैंड राज्य की मांग इस शहर और इस के नजदीक का कालिम्पोंग के शहर से शुरु हुई थी। अभी राज्य की यह मांग एक स्वायत्त पर्वतीय परिषद के गठन के परिणामस्वरूप कुछ कम हुई है। हाल की दिनों में यहाँ का वातावरण ज्यादा पर्यटकों और अव्यवस्थित शहरीकरण के कारण से कुछ बिगड़ रहा है।</t>
         </is>
       </c>
-      <c r="C59" t="n">
+      <c r="C64" t="n">
         <v>266</v>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
         <is>
           <t>उच्च उर्जा पदार्थ अनुसंधान प्रयोगशाला</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>उच्च उर्जा पदार्थ अनुसंधान प्रयोगशाला (एच.ई.एम.आर.एल.) रक्षा अनुसंधान एवं विकास संगठन (डी.आर.डी.ओ.) की एक प्रयोगशाला है। यह पुणे में स्थित है। इसका मुख्य कार्य उच्च ऊर्जा पदार्थ और विस्फोटक पदार्थ के क्षेत्र में अनुसंधान, प्रौद्योगिकियों और उत्पादों के विकास है।
 एचईएमआरएल में लगभग 1200 कर्मी है, जिसमें भौतिकविद, गणितज्ञ, रासायन, यांत्रिक और इलेक्ट्रॉनिक इंजीनियर शामिल है। यह एक आईएसओ 9001: 2000 प्रमाणित प्रयोगशाला है।</t>
         </is>
       </c>
-      <c r="C60" t="n">
+      <c r="C65" t="n">
         <v>64</v>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>मेघालय</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>मेघालय पूर्वोत्तर भारत का एक राज्य है जिसका शाब्दिक अर्थ है बादलों का घर   । 2016 के अनुसार यहाँ की जनसंख्या 32,11,474 है एवं विस्तार 22,429 वर्ग किलोमीटर के क्षेत्र में है, जिसका लम्बाई से चौड़ाई अनुपात लगभग 3:1 का है। राज्य का दक्षिणी छोर मयमनसिंह एवं सिलहट बांग्लादेशी विभागों से लगता है, पश्चिमी ओर रंगपुर बांग्लादेशी भाग तथा उत्तर एवं पूर्वी ओर भारतीय राज्य असम से घिरा हुआ है। राज्य की राजधानी शिलांग है। भारत में ब्रिटिश राज के समय तत्कालीन ब्रिटिश शाही अधिकारियों द्वारा इसे "पूर्व का स्काटलैण्ड" संज्ञा दी गयी थी। मेघालय पहले असम राज्य का ही भाग था, 21 जनवरी 1972 को असम के खासी, गारो एवं जैन्तिया पर्वतीय जिलों को काटकर नया राज्य मेघालय अस्तित्व में लाया गया। यहाँ की आधिकारिक भाषा अंग्रेजी है। इसके अलावा अन्य मुख्यतः बोली जाने वाली भाषाओं में खासी, गारो, प्नार, बियाट, हजोंग एवं बांग्ला आती हैं। इनके अलावा यहाँ हिंदी भी कुछ कुछ बोली समझी जाती है जिसके बोलने वाले मुख्यतः शिलांग में मिलते हैं। भारत के अन्य राज्यों से अलग यहाँ मातृवंशीय प्रणाली चलती है, जिसमें वंशावली माँ (महिला) के नाम से चलती है और सबसे छोटी बेटी अपने माता पिता की देखभाल करती है तथा उसे ही उनकी सारी संपत्ति मिलती है।
+यह राज्य भारत का आर्द्रतम क्षेत्र है, जहाँ वार्षिक औसत वर्षा 12,000 मि॰मी॰ (470 इंच) दर्ज हुई है। राज्य का 70% से अधिक क्षेत्र वनाच्छादित है। राज्य में मेघालय उपोष्णकटिबंधीय वन पर्यावरण क्षेत्रों का विस्तार है, यहाँ के पर्वतीय वन उत्तर से दक्षिण के अन्य निचले क्षेत्रों के उष्णकटिबन्धीय वनों से पृथक हैं। ये वन स्तनधारी पशुओ, पक्षियों तथा वृक्षों की जैवविविधता के मामलों में विशेष उल्लेखनीय हैं।
+मेघालय में मुख्य रूप से कृषि-आधारित अर्थव्यवस्था(अग्रेरियन) है जिसमें वाणिज्यिक वन उद्योग का अत्यंत महत्त्वपूर्ण स्थान है। यहाँ की मुख्य फसल में आलू, चावल, मक्का, अनान्नास, केला, पपीता एवं दालचीनी, हल्दी आदि बहुत से मसाले, आदि हैं। सेवा क्षेत्र में मुख्यतः अचल संपत्ति एवं बीमा कम्पनियाँ हैं। वर्ष 2012 के लिये मेघालय का सकल राज्य घरेलू उत्पाद ₹16,173 करोड़ (US$2.36 अरब) अनुमानित था। राज्य भूगर्भ संपदाओं की दृष्टि से खनिजों से सम्पन्न है किंतु अभी तक इससे संबंधित कोई उल्लेखनीय उद्योग चालू नहीं हुए हैं।  राज्य में लगभग 1,170 कि॰मी॰ (730 मील) लंबे राष्ट्रीय राजमार्ग बने हैं। यह बांग्लादेश के साथ व्यापार के लिए एक प्रमुख लॉजिस्टिक केंद्र भी है।</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>383</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
         <is>
           <t>सूर्य देवता</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>सूर्य को वेदों में जगत की आत्मा कहा गया है। समस्त चराचर जगत की आत्मा सूर्य ही है। सूर्य से ही इस पृथ्वी पर जीवन है, यह आज एक सर्वमान्य सत्य है। वैदिक काल में आर्य सूर्य को ही सारे जगत का कर्ता-धर्ता मानते थे।
 सूर्य का शाब्दिक अर्थ है 'सर्व प्रेरक' । यह सर्व प्रकाशक, सर्व प्रवर्तक होने से सर्व कल्याणकारी है। ऋग्वेद के देवताओं में सूर्यदेव का महत्वपूर्ण स्थान है। यजुर्वेद ने "चक्षो सूर्यो जायत" कह कर सूर्य को भगवान का नेत्र माना है। छान्दोग्यपनिषद में सूर्य को प्रणव निरूपित कर उनकी ध्यान साधना से पुत्र प्राप्ति का लाभ बताया गया है। ब्रह्मवैवर्त पुराण तो सूर्य को परमात्मा स्वरूप मानता है। प्रसिद्ध गायत्री मंत्र सूर्य परक ही है। सूर्योपनिषद में सूर्य को ही संपूर्ण जगत की उत्पत्ति का एक मात्र कारण निरूपित किया गया है और उन्ही को संपूर्ण जगत की आत्मा तथा ब्रह्म बताया गया है। सूर्योपनिषद की श्रुति के अनुसार संपूर्ण जगत की सृष्टि तथा उसका पालन सूर्य ही करते है। सूर्य ही संपूर्ण जगत की अंतरात्मा हैं। 
 अतः कोई आश्चर्य नहीं कि वैदिक काल से ही भारत में सूर्योपासना का प्रचलन रहा है। पहले यह सूर्योपासना मंत्रों से होती थी। बाद में मूर्ति पूजा का प्रचलन हुआ तो यत्र-तत्र सूर्य मन्दिरों का निर्माण हुआ। भविष्य पुराण में ब्रह्मा और विष्णु के मध्य एक संवाद में सूर्य पूजा एवं मन्दिर निर्माण का महत्व समझाया गया है। अनेक पुराणों में यह आख्यान भी मिलता है कि ऋषि दुर्वासा के श्राप से कुष्ठ रोग ग्रस्त श्री कृष्ण पुत्र साम्ब ने सूर्य की आराधना कर इस भयंकर रोग से मुक्ति पायी थी। प्राचीन काल में भगवान सूर्य के अनेक मन्दिर भारत में बने हुए थे। उनमे आज तो कुछ विश्व प्रसिद्ध हैं। वैदिक साहित्य में ही नहीं आयुर्वेद, ज्योतिष, हस्तरेखा शास्त्रों में सूर्य का महत्व प्रतिपादित किया गया है।</t>
         </is>
       </c>
-      <c r="C61" t="n">
+      <c r="C67" t="n">
         <v>300</v>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
         <is>
           <t>मनाली, हिमाचल प्रदेश</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>मनाली (Manali) भारत के हिमाचल प्रदेश राज्य के कुल्लू ज़िले में स्थित एक नगर है। यह 1,950 मीटर (6,398 फीट) की ऊँचाई पर ब्यास नदी के किनारे कुल्लू घाटी के उत्तरी छोर पर बसा हुआ है। मनाली राज्य की राजधानी, शिमला, से 270 किमी उत्तर में, चंडीगढ़ से 3में यारकन्द और ख़ोतान जाने के प्राचीन व्यापारिक मार्ग का आरम्भ-बिन्दु है। मनाली एक लोकप्रिय पर्वतीय स्थल (हिल स्टेशन) है और पर्यटकों के लिए लाहौल और स्पीति ज़िले तथा लेह का प्रवेशद्वार भी है।</t>
         </is>
       </c>
-      <c r="C62" t="n">
+      <c r="C68" t="n">
         <v>82</v>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>मार्गदर्शिका</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>मार्गदर्शिका (गाइडबुक) या यात्रा मार्गदर्शिका (यात्रा गाइड) एक ऐसी पुस्तक है जिसमें किसी स्थान के बारे में जानकारी दी जाती है, जो आगंतुकों या पर्यटकों के उपयोग के लिए तैयार की जाती है। इसमें आमतौर पर प्रमुख दर्शनीय स्थलों, आवास, रेस्तरां, परिवहन और गतिविधियों की जानकारी शामिल होती है। विभिन्न विवरणों के नक्शे, और ऐतिहासिक व सांस्कृतिक जानकारी भी अक्सर इसमें शामिल होते हैं। मार्गदर्शिका के विभिन्न प्रकार होते हैं, जो यात्रा के अलग-अलग पहलुओं पर केंद्रित होते हैं, जैसे कि रोमांच यात्रा, विश्राम, विभिन्न आय वर्ग के यात्रियों, यौन अभिविन्यास, या खानपान के प्रकार पर ध्यान केंद्रित करने वाले गाइड।
 यात्रा मार्गदर्शिका या मार्गदर्शिका वेबसाइट के रूप में भी उपलब्ध हो सकते हैं।</t>
         </is>
       </c>
-      <c r="C63" t="n">
+      <c r="C69" t="n">
         <v>114</v>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
         <is>
           <t>जूता</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>जूता पैरों में पहनने की एक ऐसी वस्तु है जिसका उद्देश्य विभिन्न गतिविधियां करते समय मानव के पैर की रक्षा करना और उसे आराम पहुंचाना है। जूतों का उपयोग एक सजावट की वस्तु के रूप में भी किया जाता है।
 समय-समय पर तथा संस्कृति से संस्कृति जूते के डिजाइन व रंग-रूप में अत्यधिक परिवर्तिन हुआ है, मूल स्वरूप में इसे काम के समय पहना जाता था। इसके अतिरिक्त, फैशन ने अक्सर कई डिजाइन तत्वों को निर्धारित किया है, जैसे जूते की एड़ी बहुत ही ऊंची हो या समतल हो। समकालीन जूते शैली, जटिलता और लागत की दृष्टि से व्यापक रूप में भिन्न होते हैं। बुनियादी सैंडल में केवल एक पतला तला और एक सामान्य पट्टा शामिल था। उच्च फैशन जूते महंगी सामग्री से और जटिल निर्माण प्रक्रिया द्वारा बनाए जाते हैं तथा उन्हें हजारों डॉलर प्रति जोड़ी बेचा जा सकता है। अन्य जूते अति विशिष्ट प्रयोजनों के लिए होते हैं, जैसे पर्वतारोहण और स्कीइंग के लिए डिजाइन किए गए जूते (बूट).
@@ -1740,185 +1898,209 @@
 शरीर के अन्य किसी अकेले अंग की तुलना में पैर में अधिक हड्डियां होती हैं। हालांकि यह सैकड़ों हजारों वर्षों में अत्यधिक भिन्न इलाकों और जलवायु स्थितियों के साथ संबंध रख कर विकसित हुआ है, किंतु पैर अभी भी पर्यावरणीय खतरों, जैसे तीक्ष्ण चट्टानों एवं गर्म जमीन के प्रति अति संवेदनशील है, जूते इन खतरों से उसकी रक्षा करते हैं।</t>
         </is>
       </c>
-      <c r="C64" t="n">
+      <c r="C70" t="n">
         <v>294</v>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
         <is>
           <t>स्थलाकृतिक उदग्रता</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>स्थलाकृति विज्ञान में उदग्रता पर्वतों के वर्गीकरण से संबंधित एक अवधारणा है। उदग्रता शब्द उदग्र से बना है जिसका अर्थ बाहर को निकला हुआ होता है। सामान्य रूप से इसे चोटी भी कहा जाता है। इसे अंग्रेजी मे प्रोमिनेंस, ऑटोनोमस हाइट, शोल्डर ड्रोप (अमेरिका में), प्राइम फैक्टर (यूरोप में) कहते हैं।</t>
         </is>
       </c>
-      <c r="C65" t="n">
+      <c r="C71" t="n">
         <v>51</v>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
         <is>
           <t>माउंट एवरेस्ट पर चढ़ने वाले भारतीय</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>माउंट एवरेस्ट पर भारतीयों द्वारा चड़ाई करने का पहला प्रयास 1960 में किया गया था। जो 8852 मीटर ऊंची है।1965 में कप्तान एम एस कोहली के नेतृत्व में एक दल शिखर पर पहुंचने वाले पहले भारतीय थे। 1965 और 2018 के बीच 422 भारतीयों ने कुल 465 प्रयास किए। इनमें से 29 जनों ने शिखर पर 43 बार प्रयास किया हैं। भारत की 74 महिलाओं द्वारा 81 प्रयास किए गए हैं और 4 महिला  द्वारा शिखर पर 7 बार प्रयास किए गए हैं। सन 2015 में कोरियन के शिवा रॉय ने चढ़ाई कर के देश का नाम रोशन किया।</t>
         </is>
       </c>
-      <c r="C66" t="n">
+      <c r="C72" t="n">
         <v>99</v>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>भारतीय थलसेना</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>भारतीय स्थल सेना , सेना की भूमि-आधारित दल की शाखा है और यह भारतीय सशस्त्र बल का सबसे बड़ा अंग है। भारत का राष्ट्रपति, थलसेना का प्रधान सेनापति होता है, और इसकी कमान भारतीय थलसेनाध्यक्ष के हाथों में होती है जो कि चार-सितारा जनरल स्तर के अधिकारी होते हैं। पाँच-सित रैंक के साथ फील्ड मार्शल की रैंक भारतीय सेना में श्रेष्ठतम सम्मान की औपचारिक स्थिति है, आजतक मात्र दो अधिकारियों को इससे सम्मानित किया गया है। भारतीय सेना का उद्भव ईस्ट इण्डिया कम्पनी, जो कि ब्रिटिश भारतीय सेना के रूप में परिवर्तित हुई थी, और भारतीय राज्यों की सेना से हुआ, जो स्वतन्त्रता के पश्चात राष्ट्रीय सेना के रूप में परिणत हुई। भारतीय सेना की टुकड़ी और रेजिमेंट का विविध इतिहास रहा हैं इसने दुनिया भर में कई लड़ाई की और अभियानों में हिस्सा लिया है, तथा आजादी से पहले और बाद में बड़ी संख्या में युद्ध सम्मान अर्जित किये।
+भारतीय सेना का प्राथमिक उद्देश्य राष्ट्रीय सुरक्षा और राष्ट्रवाद की एकता सुनिश्चित करना, राष्ट्र को बाहरी आक्रमण और आन्तरिक खतरों से बचाव, और अपनी सीमाओं पर शान्ति और सुरक्षा को बनाए रखना हैं। यह प्राकृतिक आपदाओं और अन्य गड़बड़ी के दौरान मानवीय बचाव अभियान भी चलाते है, जैसे ऑपरेशन सूर्य आशा, और आन्तरिक खतरों से निपटने के लिए सरकार द्वारा भी सहायता हेतु अनुरोध किया जा सकता है। यह भारतीय नौसेना और भारतीय वायुसेना के साथ राष्ट्रीय शक्ति का एक प्रमुख अंग है। सेना अब तक पड़ोसी देश  
+इस्लामी पाकिस्तान के साथ चार युद्धों तथा चीन के साथ एक युद्ध लड़ चुकी है। सेना द्वारा किए गए अन्य प्रमुख अभियानों में ऑपरेशन विजय, ऑपरेशन मेघदूत और ऑपरेशन कैक्टस शामिल हैं। संघर्षों के अलावा, सेना ने शान्ति के समय कई बड़े अभियानों, जैसे ऑपरेशन ब्रासस्टैक्स और युद्ध-अभ्यास शूरवीर का संचालन किया है। सेना ने कई देशो में संयुक्त राष्ट्र के शान्ति मिशनों में एक सक्रिय प्रतिभागी भी रहा है जिनमे साइप्रस, लेबनान, कांगो, अंगोला, कम्बोडिया, वियतनाम, नामीबिया, एल साल्वाडोर, लाइबेरिया, मोज़ाम्बिक और सोमालिया आदि सम्मलित हैं। राजस्थान के झुंझुनूं जिले को सैनिकों का शहर कहा जाता है।
+भारतीय सेना में एक सैन्य-दल (रेजिमेंट) प्रणाली है, लेकिन यह बुनियादी क्षेत्र गठन विभाजन के साथ संचालन और भौगोलिक रूप से सात कमान में विभाजित है। यह एक सर्व-स्वयंसेवी बल है और इसमें देश के सक्रिय रक्षा कर्मियों का 80% से अधिक हिस्सा है। यह 12,00,255 सक्रिय सैनिकों और 9,90,960 आरक्षित सैनिकों के साथ दुनिया की दूसरी सबसे बड़ी स्थायी सेना है। 
+सेना ने सैनिको के आधुनिकीकरण कार्यक्रम की शुरुआत की है, जिसे "फ्यूचरिस्टिक इन्फैंट्री सैनिक एक प्रणाली के रूप में" के नाम से जाना जाता है इसके साथ ही यह अपने बख़्तरबन्द, तोपखाने और उड्डयन शाखाओं के लिए नए संसाधनों का संग्रह एवं सुधार भी कर रहा है।.</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>445</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
         <is>
           <t>खुशबीर कौर</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>खुशबीर कौर  भारत की एक खिलाड़ी हैं। इन्होंने इंचियोन में हुए 2014 एशियाई खेलों में एथलेटिक्स की 20 किलोमीटर रेस वॉक स्पर्धा में रजत पदक प्राप्त किया।</t>
         </is>
       </c>
-      <c r="C67" t="n">
+      <c r="C74" t="n">
         <v>27</v>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
         <is>
           <t>भाविना पटेल</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>भाविना हसमुखभाई पटेल (गुजराती: ભાવિના હસમુખભાઈ પટેલ) भारत की महिला पैरा टेबल टेनिस खिलाड़ी हैं। इन्होने आईटीटीएफ पैरा टेबल टेनिस एशियाई क्षेत्रीय चैंपियनशिप-2013 के महिला एकल वर्ग में रजत पदक जीता। विकलांगता के बावजूद ये 2013 आइटीटीएफ पीटीटी एशियाई टेटे क्षेत्रीय चैंपियनशिप में रजत पदक जीतने वाली पहली भारतीय पैरा टेबल टेनिस खिलाड़ी बन गई।</t>
         </is>
       </c>
-      <c r="C68" t="n">
+      <c r="C75" t="n">
         <v>55</v>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
         <is>
           <t>अंजली भगवत</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>अंजली भागवत (जन्म 5 दिसंबर 1969) एक पेशेवर भारतीय शूटर हैं । वह 2002 में 10 मीटर एयर राइफल में वर्ल्ड नंबर वन बनीं। उन्होंने 2003 में मिलान में अपना पहला विश्व कप फाइनल भी जीता था, जिसमें  उन्होंने 399/400 का स्कोर बनाया | 
 अंजलि ने आईएसएसएफ चैंपियन ऑफ चैंपियंस पुरस्कार जीता और 2002 में म्यूनिख में एयर राइफल पुरुष और वे महिला मिश्रित इवेंट में आईएसएसएफ चैंपियंस ट्रॉफी जीतने वाली एकमात्र भारतीय हैं। वह लगातार तीन ओलंपिक में भारत का प्रतिनिधित्व कर चुकी हैं, और 2000 के सिडनी ओलंपिक में फाइनलिस्ट थीं। उन्होंने कॉमनवेल्थ गेम्स और कॉमनवेल्थ शूटिंग चैंपियनशिप में 12 स्वर्ण और 4 रजत पदक जीते हैं। वह 10 मीटर एयर राइफल और स्पोर्ट्स राइफल 3P में राष्ट्रमंडल रिकॉर्ड धारक हैं। 2003 के एफ्रो-एशियाई खेलों में, भागवत ने क्रमशः 3P और एयर राइफल स्पर्धाओं में स्वर्ण और एक रजत पदक प्राप्त करने वाली पहली भारतीय महिला निशानेबाज बनकर इतिहास रच दिया । 
 आज तक, अंजलि ने 31 स्वर्ण, 23 रजत और 7 कांस्य पदक जीते हैं। उन्होंने अंतर्राष्ट्रीय प्रतियोगिताओं में 13 नए रिकॉर्ड बनाए हैं और भारत में राष्ट्रीय प्रतियोगिताओं में 8 नए रिकॉर्ड के साथ 55 स्वर्ण, 35 रजत और 16 कांस्य पदक जीते हैं।</t>
         </is>
       </c>
-      <c r="C69" t="n">
+      <c r="C76" t="n">
         <v>198</v>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t>मनिका बत्रा</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>मनिका बत्रा (अंग्रेज़ी: Manika Batra)(जन्म १५ जून १९९५) एक भारतीय टेबल टेनिस के खिलाड़ी है। अप्रैल २०१८ के अनुसार वह भारत की सर्वोच्च वरीयता प्राप्त महिला टेबल टेनिस खिलाड़ी हैं तथा विश्व में ५८वीं वरीयता प्राप्त हैं। 
 इन्होंने २०१६ ग्रीष्मकालीन ओलम्पिक में भारत का प्रतिनिधित्व किया।</t>
         </is>
       </c>
-      <c r="C70" t="n">
+      <c r="C77" t="n">
         <v>46</v>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t>चंगे जलप्रपात</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>चंगे जलप्रपात भारत के पश्चिम बंगाल के लिंग्सेखा खासमहल में स्थित एक मंत्रमुग्ध कर देने वाला जलप्रपात है। 300 मीटर (984 फीट) की कुल ऊंचाई के साथ, यह उत्तर बंगाल में सबसे अधिक ऊंचाई वाला झरना है। कलिम्पोंग जिले की प्राकृतिक सुंदरता से घिरा, चंगे जलप्रपात आस-पास की बस्तियों में आकर्षण जोड़ता है और प्रकृति के प्रति उत्साही लोगों के लिए एक लुभावनी अनुभव प्रदान करता है।</t>
         </is>
       </c>
-      <c r="C71" t="n">
+      <c r="C78" t="n">
         <v>67</v>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
         <is>
           <t>ऊँचाई तंबू</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>ऊँचाई के लिए तंबू एक सीलबंद तम्बू होता है जिसके जरिए अधिक ऊँचाई पर कम ऑक्सीजन वाले माहौल को कृत्रिम रूप से पैदा किया जाता है।। ऊँचाई पर रह के या प्रशिक्षण कर के शरीर ऑक्सीजन ले जाने वाली लाल रक्त कोशिकाओं और हीमोग्लोबिन का ज़्यादा उत्पादन करके कम ऑक्सीजन वाले माहौल के अनुकूल हो जाता है, इस प्रकार शरीर को उच्च ऊँचाई के अनुकूल होने और वापस नीचे लौटने पर शरीर की मज़बूती को बढ़ाता है। पर्वतारोही इनका उपयोग ऊँचाई की बीमारी से बचने के लिए कर सकते हैं, और खिलाड़ी इनका उपयोग निचले इलाकों में प्रदर्शन बढ़ाने के लिए कर सकते है।</t>
         </is>
       </c>
-      <c r="C72" t="n">
+      <c r="C79" t="n">
         <v>104</v>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
         <is>
           <t>भारतीय राष्ट्रिकता विधि</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>भारतीय नागरिकता कानून (इंडियन नेशनैलिटी लॉ) के अनुसार भारत का संविधान पूरे देश के लिए एकमात्र नागरिकता उपलब्ध कराता है। नागरिकता से सम्बन्धित प्रावधानों को भारत के संविधान के द्वितीय भाग के अनुच्छेद 5 से 11 में दिया गया है।  
 26 जनवरी 1950 और 1 जुलाई 1987 के बीच भारत में पैदा हुए सभी व्यक्तियों को अपने माता-पिता की राष्ट्रीयता की परवाह किए बिना जन्म से नागरिकता प्राप्त हुई। 1 जुलाई 1987 और 3 दिसंबर 2004 के बीच, जन्म से नागरिकता दी जाती थी यदि माता-पिता में से कम से कम एक नागरिक था। तब से देश में पैदा हुए व्यक्तियों को जन्म के समय भारतीय नागरिकता तभी प्राप्त होती है जब माता-पिता दोनों भारतीय नागरिक हों, या यदि एक माता-पिता नागरिक हों और दूसरे को अवैध प्रवासी नहीं माना जाता है।
@@ -1926,334 +2108,426 @@
 इन सुधारों के बाद, भारतीय राष्ट्रीयता कानून, क्षेत्र के भीतर जन्म के अधिकार के द्वारा नागरिकता (jus soli)  के विपरीत काफी सीमा तक रक्त के सम्बन्ध के द्वारा नागरिकता (jus sanguinis) का अनुसरण करता है।</t>
         </is>
       </c>
-      <c r="C73" t="n">
+      <c r="C80" t="n">
         <v>247</v>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
         <is>
           <t>पद्म विभूषण</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>पद्म विभूषण सम्मान भारत सरकार द्वारा दिया जाने वाला दूसरा उच्च नागरिक सम्मान है, जो देश के लिये असैनिक क्षेत्रों में बहुमूल्य योगदान के लिये दिया जाता है। यह सम्मान भारत के राष्ट्रपति द्वारा दिया जाता है। इस सम्मान की स्थापना 2 जनवरी 1954 में की गयी थी। भारत रत्‍न के बाद यह दूसरा प्रतिष्ठित सम्मान है। पद्म विभूषण के बाद तीसरा नागरिक सम्मान पद्म भूषण है। यह सम्मान किसी भी क्षेत्र में विशिष्ट और उल्लेखनीय सेवा के लिए प्रदान किया जाता है। इसमें सरकारी कर्मचारियों द्वारा की गई सेवाएं भी शामिल हैं।
 यह भारत सरकार द्वारा पद्म विभूषण से अलंकृत किए गए लोगों की सूची है:</t>
         </is>
       </c>
-      <c r="C74" t="n">
+      <c r="C81" t="n">
         <v>107</v>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>भारत में पर्यटन</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>भारत में पर्यटन सबसे बड़ा सेवा उद्योग है, जहां इसका राष्ट्रीय सकल घरेलू उत्पाद (GDP) में 6.23% और भारत के कुल रोज़गार में 8.78% योगदान है। भारत में वार्षिक तौर पर ५० लाख विदेशी पर्यटकों का आगमन और ५६.२ करोड़ घरेलू पर्यटकों द्वारा भ्रमण परिलक्षित होता है। 2008 में भारत के पर्यटन उद्योग ने लगभग US$100 बिलियन जनित किया और 2018 तक 9.4% की वार्षिक वृद्धि दर के साथ, इसके US$275.5 बिलियन तक बढ़ने की उम्मीद है। 
+भारत में पर्यटन के विकास और उसे बढ़ावा देने के लिए पर्यटन मंत्रालय नोडल एजेंसी है और "अतुल्य भारत" अभियान की देख-रेख करता है।
+विश्व यात्रा और पर्यटन परिषद के अनुसार, भारत, सर्वाधिक 10 वर्षीय विकास क्षमता के साथ, 2009-2018 से पर्यटन का आकर्षण केंद्र बन जाएगा. यात्रा एवं पर्यटन प्रतिस्पर्धा रिपोर्ट 2007 ने भारत में पर्यटन को प्रतियोगी क़ीमतों के संदर्भ में 6वां तथा सुरक्षा व निरापदता की दृष्टि से 39वां दर्जा दिया है। होटल के कमरों की कमी के रूप में, लघु और मध्यमावधि रुकावट के बावजूद, 2007 से 2017 तक पर्यटन राजस्व में 42% उछाल की उम्मीद है।
+भारत में विकासशील चिकित्सा पर्यटन क्षेत्र मौजूद है।
+निस्संदेह, इस महान देश की सांस्कृतिक समृद्धि और परिदृश्य सुंदरता इसे एक ऐसा गंतव्य बनाती है जिसे जीवन में कभी न कभी अवश्य जाना चाहिए। हिमालय की बर्फीली चोटियों से लेकर केरल की उष्णकटिबंधीय वनस्पतियों तक फैली इसकी विशाल सीमाएँ परिदृश्य, संस्कृतियों और लोगों की एक अतुलनीय विविधता को समाहित करती हैं। किसी भी भारतीय शहर की सड़कों पर चलें और आप दुनिया के महान धर्मों के कई प्रतिनिधियों के साथ कंधे से कंधा मिलाकर चलेंगे। आप मिस्र के फिरौन के समय से प्रदर्शन किए गए मंदिर के अनुष्ठानों को पाएंगे, ताजमहल से सदियों पहले प्याज के गुंबदों के साथ मस्जिदें और लगभग हर कोने में ब्रिटिश राज की गूँज ईजो को मिलती हैं।
+भारत अपनी समृद्ध संस्कृति और परंपराओं के लिए दुनिया भर में जाना जाता है। हालांकि, इस प्राचीन देश में एक नया पक्ष है, और वह यह है कि शहरों में इसकी रंगीन नाइटलाइफ़ फल-फूल रही है। बढ़ती कॉर्पोरेट संस्कृति और हर दूसरे व्यक्ति के युवा होने के साथ, पब, क्लब, संगीत और जीवंत रेस्तरां ने नाइटलाइफ़ में अपना रास्ता खोज लिया है।</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>362</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
         <is>
           <t>एलिजाबेथ रुमेल</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>एलिजाबेथ "लिज़ी" वॉन रुमेल (19 फरवरी, 1897 - 10 अक्टूबर, 1980) एक जर्मन-कनाडाई पर्यावरणविद् और पर्वतारोही थे। 1980 में, उन्हें ऑर्डर ऑफ कनाडा का सदस्य बनाया गया था।</t>
         </is>
       </c>
-      <c r="C75" t="n">
+      <c r="C83" t="n">
         <v>28</v>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
         <is>
           <t>मेघालय में पर्यटन</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>मेघालय पूर्वोत्तर भारत का पर्वतीय राज्य है जो प्राकृतिक सम्पदा से परिपूर्ण है। राज्य की राजधानी शिलांग है जो राज्य के लगभग बीचोंबीच स्थित है और राज्य के सबसे ऊंचे पर्वतों के बीच बसी है। राज्य के बीच खासी पर्वत सबसे विस्तृत हैं, जिनके पूर्वी ओर अपेक्षाकृत छोटे जयन्तिया पर्वत एवं पश्चिमी ओर उससे भी छोटे गारो पर्वत हैं। इन पर्वतों पर इन्हीं नाम से प्रसिद्ध जनजातियां रहती हैं। बहुत पहले विदेशी पर्यटकों को उन क्षेत्रों में प्रवेश पूर्व अनुमति लेनी होती थी, जिनसे मिल कर अब मेघालय बना है। हालांकि प्रतिबन्ध १९५५ में हटा लिए गए थे। राज्य के पर्वतों, पठारी ऊंची-नीची भूमि, कोहरे व धूंध से भरे इलाकों और नैसर्गिक दृश्यों आदि को देखते हुए मेघालय की तुलना स्कॉटलैण्ड से की जाती रही है। राज्य में देश के सबसे घने प्राथमिक वन उपस्थित हैं और इस कारण से यह भारत के सबसे महत्त्वपूर्भ पारिस्थित्तिक क्षेत्रों में से एक गिना जाता रहा है। मेघालयी उपोष्णकटिबंधीय वनों में पादप एवं जीव जगत की वृहत किस्में पायी जाती है।</t>
         </is>
       </c>
-      <c r="C76" t="n">
+      <c r="C84" t="n">
         <v>168</v>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>कासनी, पिथौरागढ (सदर) तहसील</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>कासनी, पिथौरागढ (सदर) तहसील में भारत के उत्तराखण्ड राज्य के अन्तर्गत कुमाऊँ मण्डल के पिथोरागढ जिले का एक गाँव है जिस की आलोकिक संस्कृति,जैव विविधता व ऐतिहासिक धरोवर कहा जाने वाला ग्राम का इतिहास अपने आप में आलोकिक है ।गाँव को के मद्य में से हिमालय की नंदा खाट पर्वत की चोटी दिखाई पड़ता है, और चारो और खेतों व मंदिरों से घिरा है वही गाँव में तीन जल स्त्रोत भी है जिसे नोलों (बावड़ी) के नाम से जाना जाता है, साथ ही एक तरफ ठुलिगाड व् दूसरी तरफ इस गाव की सीमा पर रंधोला नाम की नदी यहा से बहती है इसी नदी के तट से लगा महाकाल का मंदिर जो की मुंगरु देवता के नाम से प्रख्यात है इस मंदिर की अपनी ही विशेष कहानिया है जिसमे लोगो की आस्था दिखाई देती है यह जिले का एक मात्र महाकाल का मंदिर है और इन दोनों नदियों के संगम पर सेरा देवल (द्योलसमेत) नामक मंदिर जिस का वर्णन स्कंदपुराण में भी दिखाई देता है भगवान शिव का मंदिर भी इसी भूमि में  विराजमान है वही कासनी के कसनियाल मुंगरु देवता,सेरादेवल और विष्णु के पुजारी है और इनका इतिहास अपने आप में अतुल्य है। काफी इतिहासकारों का मन्ना यह भी है की इस गाँव में प्रागैतिहासिक काल से ही लोंग रहा करते है इस का साक्ष्य कप मार्क्स जिसे औखल के नाम से जाना जाता है यह जनपद के कुछ ही गावं में पाए गए है। इतिहासकार डॉ राम सिंह ने भी अपनी पुस्तक (सोर का इतिहास) में इस गावं के प्रागैतिहासिक होने के बारे में लिखा है।     
+कासनी पिथोरागढ़ के सबसे पुराने गाँवो में से एक है और मुख्य परिवार कसनियालो का है इस के अलावा भट्ट,कापड़ी,पाण्डेय,थ्वाल व् शर्मा इनके मित्र थे जिनको अपने साथ ही यहा ले आये थे और नाथ,गिरी,गोस्वामी बाद में यहा बसाए गए जिनको कोस्टाक,जामढ़ व् लम्पाटा तोक में स्थान दिया गया। गाँव की मुख्य आजीविका का श्रोत खेती था परन्तु 70 के दशक में जब यहा आर्मी आई तो यहा के लोगो ने अपनी काफी भूमि मिलट्री को दे दी वर्तमान में गाव के लोग अपने अलग अलग व्यवसाय में है कोई कृषि से आज भी जुड़ा है तो कोई आर्मी में है।</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>359</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
         <is>
           <t>प्रशिक्षण</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>प्रशिक्षण (Training) का अर्थ है, अपने आप को या किसी दूसरे को ऐसी शिक्षा देना और या कौशल विकसित करना जिससे किसी विशेष कार्य में प्रवीणता आजाय।</t>
         </is>
       </c>
-      <c r="C77" t="n">
+      <c r="C86" t="n">
         <v>27</v>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
         <is>
           <t>नन्दा देवी पर्वत</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>नन्दा देवी पर्वत भारत की दूसरी एवं विश्व की २३वीं सर्वोच्च चोटी है। इससे ऊंची व देश में सर्वोच्च चोटी कंचनजंघा है। नन्दा देवी शिखर हिमालय पर्वत शृंखला में भारत के उत्तरांचल राज्य में पूर्व में गौरीगंगा तथा पश्चिम में ऋषिगंगा घाटियों के बीच स्थित है। इसकी ऊंचाई ७८१७ मीटर (२५,६४३ फीट) है। इस चोटी को उत्तरांचल राज्य में मुख्य देवी के रूप में पूजा जाता है। इन्हें नन्दा देवी कहते हैं। नन्दादेवी मैसिफ के दो छोर हैं। इनमें दूसरा छोर नन्दादेवी ईस्ट कहलाता है। इन दोनों के मध्य दो किलोमीटर लम्बा रिज क्षेत्र है। इस शिखर पर प्रथम विजय अभियान में १९३६ में नोयल ऑडेल तथा बिल तिलमेन को सफलता मिली थी। पर्वतारोही के अनुसार नन्दादेवी शिखर के आसपास का क्षेत्र अत्यंत सुंदर है। यह शिखर २१००० फुट से ऊंची कई चोटियों के मध्य स्थित है। यह पूरा क्षेत्र नन्दा देवी राष्ट्रीय उद्यान घोषित किया जा चुका है। इस नेशनल पार्क को १९८८ में यूनेस्को द्वारा प्राकृतिक महत्व की विश्व धरोहर का सम्मान भी दिया जा चुका है।</t>
         </is>
       </c>
-      <c r="C78" t="n">
+      <c r="C87" t="n">
         <v>169</v>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
         <is>
           <t>जेम्स बॉण्ड</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>जेम्स बॉण्ड (अंग्रेज़ी: James Bond) 1953 में अंग्रेज़ लेखक इयान फ़्लेमिंग द्वारा रचित एक काल्पनिक पात्र है। 007 के गुप्त नाम से प्रसिद्ध यह एजेंट फ़्लेमिंग की बारह पुस्तकों व दो लघुकथाओं में मौजूद है। 1964 में फ़्लेमिंग की मृत्यु के पश्चात छः अन्य लेखकों ने बॉण्ड की आधिकृत पुस्तकें लिखी हैं, जिनमें किंग्सले ऐमिस, क्रिस्टोफ़र वुड्स, जॉन गार्ड्नर, रेमंड बेनसन, सबैश्चियन फ़ॉक्स और जेफ़्री डेवर शामिल हैं। इसके साथ चार्ली हिग्सन ने जेम्स बॉण्ड के बचपन के कारनामों पर एक श्रृंखला व केट वॅस्टब्रुक ने मनीपॅनी, जो हर पुस्तक में मौजूद किरदार है, की डायरी पर आधारित तीन पुस्तकें लिखी हैं।
 ब्रिटिश गोपनीय संस्था के इस काल्पनिक पात्र को कई फ़िल्मों, रेडियो, कॉमिक्स व वीडियो गेम्स में अपनाया जा चुका है और इसकी फ़िल्म श्रृंखला विश्व की सबसे लंबी व दूसरी सबसे अधिक कमाई वाली श्रृंखला है। इसकी शुरुआत 1962 में बनी फ़िल्म डॉ॰ नो से हुई थी, जिसमें शॉन कॉनरी ने बॉण्ड की भूमिका अदा की थी। 2012 तक जेम्स बॉण्ड की इयान प्रोडक्शन्स द्वारा बाइस फ़िल्में बनाई जा चुकी हैं और तेइसवीं फ़िल्म स्कायफॉल अक्टूबर 2012 को रिलीज़ हुई। इसमें डैनियल क्रैग तीसरी बार बॉण्ड की भूमिका निभाई। वे छठे अभिनेता हैं जिन्होंने इयान श्रृंखला में यह भूमिका निभाई है।
 जेम्स बॉण्ड की फ़िल्में कईं चीज़ों के लिए मशहूर हैं, जिसमें फ़िल्म की ध्वनि, जिसे कई बार अकादमी पुरस्कार के लिए नामांकन प्राप्त हुआ है, शामिल है। फ़िल्म की प्रसिद्धि का दूसरा कारण इसमें मौजूद बॉण्ड की गाड़ियाँ, बन्दूकें व तकनीकी उपकरण शामिल हैं जो उसे क्यू की शाखा प्रदान करती है।</t>
         </is>
       </c>
-      <c r="C79" t="n">
+      <c r="C88" t="n">
         <v>255</v>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
         <is>
           <t>डायना गोल्डन</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>डायना गोल्डन ब्रोसनिहान ( नी डायना गोल्डन, 20 मार्च, 1963 - 25 अगस्त, 2001) एक अमेरिकी विकलांग स्की रेसर थीं। 12 साल की उम्र में कैंसर से एक पैर हारने के बाद, उसने 1986 और 1990 के बीच थ्री-ट्रैकर, या वन-लेग्ड स्कीयर के रूप में 10 विश्व और 19 यूनाइटेड स्टेट्स चैंपियनशिप जीती। गोल्डन ने 1988 के कैलगरी खेलों में विशाल स्लैलम में ओलंपिक स्वर्ण पदक भी जीता था, जहां विकलांग स्कीइंग एक प्रदर्शन खेल था । उन्होंने 1980 और 1988 में दो शीतकालीन पैरालंपिक खेलों में अल्पाइन स्कीइंग में भाग लिया, बाद के वर्ष में दो स्वर्ण पदक जीते।  स्कीइंग से सेवानिवृत्त होने के बाद, कैंसर 1992 और 1996 में वापस आ गया, कैंसर के साथ उसे आखिरी बार 2001 में उसकी मृत्यु हो गई।</t>
         </is>
       </c>
-      <c r="C80" t="n">
+      <c r="C89" t="n">
         <v>126</v>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
         <is>
           <t>पंचाचूली पर्वत</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>पंचाचूली पर्वत भारत के उत्तराखंड राज्य के उत्तरी कुमाऊं क्षेत्र में एक हिमशिखर शृंखला है। वास्तव में यह शिखर पांच पर्वत चोटियों का समूह है। समुद्रतल से इनकी ऊंचाई ६,३१२ मीटर से ६,९०४ मीटर तक है। इन पांचों शिखरों को पंचाचूली-१ से पंचाचूली-५ तक नाम दिये गये हैं। पंचचूली के पूर्व में सोना हिमनद और मे ओला हिमनद स्थित हैं तथा पश्चिम में उत्तरी बालटी हिमनद एवं उसका पठार है। पंचाचूली शिखर पर चढ़ाई के लिए पर्वतारोही पहले पिथौरागढ़ पहुंचते हैं। वहां से मुन्स्यारी और धारचूला होकर सोबला नामक स्थान पर जाना पड़ता है। पंचाचूली शिखर पिथौरागढ़ में कुमाऊं के चौकोड़ी एवं मुन्स्यारी जैसे छोटे से पर्वतीय स्थलों से दिखाई देते हैं। वहां से नजर आती पर्वतों की कतार में इसे पहचानने में सरलता होती है।</t>
         </is>
       </c>
-      <c r="C81" t="n">
+      <c r="C90" t="n">
         <v>126</v>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
         <is>
           <t>सोंग सेंग-हॉन</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>सोंग सेंग-हॉन ( हंगुल: 송승헌     ; 5 अक्टूबर 1976 को जन्मे) एक दक्षिण कोरियाई अभिनेता हैं।  उन्होंने विभिन्न टेलीविजन नाटकों में विशेष रूप से &lt;i id="mwDA"&gt;ऑटम इन माय हार्ट&lt;/i&gt; (2000), &lt;i id="mwDw"&gt;ईस्ट ऑफ़ ईडन&lt;/i&gt; (2008), &lt;i id="mwEg"&gt;माई प्रिंसेस&lt;/i&gt; (2011) और &lt;i id="mwFQ"&gt;प्लेयर&lt;/i&gt; (2018) मे अभिनय किया।</t>
         </is>
       </c>
-      <c r="C82" t="n">
+      <c r="C91" t="n">
         <v>46</v>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
         <is>
           <t>राजेश्वरी गायकवाड़</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>राजेश्वरी गायकवाड़ (जन्म:01 जून 1991) एक भारतीय महिला क्रिकेटर है।इन्होंने खेलने की शुरुआत अंतराष्ट्रीय एक दिवसीय क्रिकेट में श्री लंका के विरुद्ध 19 जनुअरी 2014 में की थी।</t>
         </is>
       </c>
-      <c r="C83" t="n">
+      <c r="C92" t="n">
         <v>28</v>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
         <is>
           <t>करिमोर</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>करीमोर बैकपैक, आउटडोर और खेल उपकरण और कपड़ों का एक ब्रिटिश ब्रांड है।
 कंपनी की स्थापना 1946 में करीमोर बैग कंपनी के रूप में की गई थी।
 1990 के दशक के अंत में शुरू हुई वित्तीय कठिनाइयों के कारण कंपनी ने मार्च 2003 में रिसीवरशिप में प्रवेश किया, जिसके बाद ट्रेडमार्क को स्पोर्ट्स डायरेक्ट द्वारा अधिग्रहित किया गया और अब इसका उपयोग विभिन्न बजट आउटडोर और चलने वाले उत्पादों के लिए किया जाता है।</t>
         </is>
       </c>
-      <c r="C84" t="n">
+      <c r="C93" t="n">
         <v>74</v>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
         <is>
           <t>यति</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>यति या घृणित हिममानव एक पौराणिक प्राणी और एक वानर जैसा क्रिप्टिड है जो कथित तौर पर नेपाल और तिब्बत के हिमालय क्षेत्र में निवास करता है। यति और मेह-तेह नामों का उपयोग आम तौर पर क्षेत्र के मूल निवासी करते हैं, और यह उनके इतिहास एवं पौराणिक कथाओं का हिस्सा है। यति की कहानियों का उद्भव सबसे पहले 19वीं सदी में पश्चिमी लोकप्रिय संस्कृति के एक पहलू के रूप में हुआ।
 वैज्ञानिक समुदाय अधिकांश तौर पर साक्ष्य के अभाव को देखते हुए यति को एक किंवदंती के रूप में महत्व देते हैं, फिर भी यह क्रिप्टोज़ूलॉजी के सबसे प्रसिद्ध प्राणियों में से एक के रूप में कायम है। यति को उत्तरी अमेरिका के बिगफुट किंवदंती की तरह का ही एक प्रकार माना जा सकता है।</t>
         </is>
       </c>
-      <c r="C85" t="n">
+      <c r="C94" t="n">
         <v>126</v>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>ब्रैड पिट</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>विलियम ब्रैडली "ब्रैड" पिट (जन्म 18 दिसम्बर 1963) एक अमेरिकी अभिनेता और फिल्म निर्माता हैं। उन्हें दुनिया के सबसे आकर्षक पुरुषों में से एक के रूप में उद्धृत किया गया है, एक ऐसा ठप्पा, जो मीडिया को उनके परदे से बाहर के जीवन पर रिपोर्ट करने के लिए ललचाता है। पिट को दो अकादमी पुरस्कार नामांकन और चार गोल्डन ग्लोब पुरस्कार नामांकन प्राप्त हुआ है, जिसमें से उन्होंने एक जीता है।
+पिट ने अपने अभिनय कैरियर की शुरूआत टेलीविज़न पर अतिथि भूमिकाओं से की, जिसमें 1987 में CBS धारावाहिक "डल्लास" में एक भूमिका शामिल है। उन्हें 1991 की रोड फ़िल्म थेल्मा एंड लुईस के एक बेपरवाह अनुरोध-यात्री के रूप में पहचान मिली जो जीना डेविस के चरित्र को फुसलाता है। पिट को बड़े बजट के निर्माणों में मुख्य भूमिका अ रिवर रन्स थ्रू इट (1992) और इंटरव्यू विथ द वैमपायर (1994) के माध्यम से मिली.1994 के नाटक लेजेंड्स ऑफ़ द फॉल में उन्हें एंथनी हॉपकिन्स के साथ भूमिका दी गई, जिसके लिए उन्हें पहली बार गोल्डन ग्लोब नामांकन प्राप्त हुआ। 1995 में उन्होंने क्राइम थ्रिलर सेवन और कल्पित विज्ञान फ़िल्म ट्वेल्व मंकीस में समीक्षकों द्वारा प्रशंसित अभिनय किया, जिनमें परवर्ती फ़िल्म के लिए उन्हें सर्वश्रेष्ठ सहायक अभिनेता का गोल्डन ग्लोब पुरस्कार और अकादमी पुरस्कार नामांकन मिला. चार साल बाद 1999 में, पिट ने कल्ट हिट फ़ाइट क्लब में अभिनय किया। इसके बाद 2001 में, उन्होंने अंतर्राष्ट्रीय स्तर पर अत्यधिक सफल फ़िल्म ओशन्स इलेवन और उसके सीक्वेल ओशन्स ट्वेल्व (2004) और ओशन्स थर्टीन (2007) में अभिनय किया। उन्हें अपनी सबसे बड़ी व्यावसायिक सफलता ट्रॉय (2004) और Mr. &amp; Mrs. स्मिथ (2005) से मिली.पिट को 2008 की फ़िल्म द क्यूरिअस केस ऑफ़ बेंजामिन बटन में, शीर्षक भूमिका में अपने प्रदर्शन के लिए दूसरा अकादमी पुरस्कार नामांकन प्राप्त हुआ।
+अभिनेत्री गिनिथ पाल्ट्रो के साथ एक प्रभावशाली रिश्ते के बाद, पिट पांच साल तक अभिनेत्री जेनिफ़र एनीस्टन से विवाहित रहे.यथा 2009, वे एंजेलीना जोली के साथ एक ऐसे रिश्ता में जुड़ कर रह रहे हैं, जिसने दुनिया भर में मीडिया का ध्यान आकर्षित किया है। उनके और जोली के तीन दत्तक बच्चे हैं, मैडॉक्स, ज़हारा और पैक्स और उन्होंने तीन जैविक बच्चों, शीलोह, नॉक्स और विविएन को जन्म भी दिया है। पिट प्लान B एंटरटेनमेंट नामक एक निर्माण कंपनी के मालिक हैं, जिसने अन्य फिल्मों के साथ 2007 की सर्वश्रेष्ठ फिल्म के लिए अकादमी पुरस्कार विजेता द डिपार्टेड का निर्माण किया। जोली के साथ अपने रिश्ते की शुरूआत से ही, वे संयुक्त राज्य अमेरिका और अंतर्राष्ट्रीय स्तर पर, सामाजिक मुद्दों में अत्यधिक आवेष्टित हुए हैं।</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>411</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
         <is>
           <t>केरिन्थिया</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>केरिन्थिया (जर्मन: Kärnten, स्लोवेनियाई: Koroška) एक सुदूर दक्षिणी ऑस्ट्रियाई राज्य या क्षेत्र है। यह ईस्टर्न आल्प्स के भीतर स्थित है और मुख्यतः पर्वतों और झीलों के लिए यह प्रसिद्ध है।
 एक विशेष (आसानी से पहचानने योग्य) दक्षिणी ऑस्ट्रो-बवारियन बोली के साथ यहां के लोग मुख्य रूप से जर्मन बोलते हैं जिसमें मुख्य रूप से दोहरे व्यंजन से पहले सभी छोटे जर्मन स्वर लम्बे होते हैं ("केरिन्थियान वोवेल स्ट्रेचिंग"). एक स्लोवेने-भाषी अल्पसंख्यक, जिसे केरिंथियान स्लोवेने के रूप में जाना जाता है, राज्य के दक्षिणी और दक्षिण पूर्वी भागों में केंद्रित है। इसके आकार को ठीक से निर्धारित नहीं किया जा सकता है क्योंकि जातीय समूह के प्रतिनिधियों ने किसी प्रकार की गिनती को अस्वीकार किया है। 2001 की जनगणना का बहिष्कार करने की सिफारिशों के लिए जिसमें प्रतिदिन बातचीत की जाने वाली भाषा के इस्तेमाल से आंकड़े बनाने के लिए कहा गया है (12,554 लोग या 527,333 की कुल जनसंख्या की 2.38%) संदेहास्पद है।
 केरिंथिया का मुख्य उद्योग, पर्यटन, इलेक्ट्रॉनिक्स, इंजीनियरिंग, वानिकी और कृषि रहे हैं। यहां बहुराष्ट्रीय निगम फिलिप्स और सीमेंस के बड़े संचालन हैं।</t>
         </is>
       </c>
-      <c r="C86" t="n">
+      <c r="C96" t="n">
         <v>175</v>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>कोरिया वन सेवा</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>कोरिया फ़ॉरेस्ट सर्विस, खाद्य, कृषि, वानिकी और मत्स्य पालन, खाद्य और ग्रामीण मामलों के मंत्रालय के तहत एक केंद्रीय प्रशासनिक एजेंसी है, जो वनों की सुरक्षा और पोषण, वन संसाधनों में वृद्धि, वन उत्पादों के विकास, वन प्रबंधन और सुधार पर शोध करने के लिए जिम्मेदार है, और डाइजॉन गवर्नमेंट कॉम्प्लेक्स में स्थित है। अतीत में, 1973 से 1986 तक राष्ट्रीय वनीकरण अभियान के दौरान, यह अस्थायी रूप से गृह मंत्रालय (अब आंतरिक और सुरक्षा मंत्रालय) के अधीन था, लेकिन 1987 में कृषि, वानिकी और मत्स्य मंत्रालय में वापस आ गया। हालाँकि, चूंकि एजेंसी का काम पूरी तरह से सफल राष्ट्रीय वनीकरण नीतियों को बनाए रखने और प्रबंधित करने पर केंद्रित था, समय की अवधि के लिए इसकी आवश्यकता के बारे में सवाल उठाए गए थे। वर्तमान में, एजेंसी ने अपनी पहचान को एक में बदल दिया है जो वन संसाधनों के माध्यम से निरंतर आय उत्पन्न करने का प्रयास करती है।
+यह सरकारी एजेंसियों में से एक है जो भविष्य में उत्तर-दक्षिण एकीकरण की स्थिति में विस्तार करने की अत्यधिक संभावना है। उत्तर कोरिया में, कई पहाड़ हैं, और यह उम्मीद की जाती है कि माउंट मिंडुंगसन के आसपास केंद्रित वनीकरण परियोजनाओं को बढ़ावा देने के लिए क्षेत्रीय वन कार्यालयों का विस्तार किया जाएगा।
+कोरिया राष्ट्रीय उद्यान सेवा, जो पर्यावरण मंत्रालय के अधीन है, का कोरिया वन सेवा के साथ लंबे समय से संघर्ष चल रहा था। दोनों एजेंसियां वन संबंधी कार्यों की प्रभारी हैं, लेकिन विशिष्ट व्यावसायिक उद्देश्यों में अंतर के कारण अक्सर संघर्ष होते थे। जबकि कोरिया वन सेवा वानिकी को बढ़ावा देने के लिए वन विकास में भी निवेश करती है, कोरिया राष्ट्रीय उद्यान सेवा का प्राथमिक उद्देश्य वन संरक्षण है। इसलिए, 2012 में, "लेट्स गेट अलॉन्ग" नामक दो संगठनों के बीच एक लेख प्रकाशित हुआ था।
+इसके अलावा, इसका सांस्कृतिक विरासत प्रशासन के साथ एक सहकारी संबंध है। पारंपरिक सांस्कृतिक गुणों को बहाल करने, बनाए रखने और मरम्मत करने के लिए उच्च गुणवत्ता वाली लकड़ी आवश्यक है, और विशेष रूप से, कोरियाई पाइन, जिसे "ग्यूमगांग पाइन" भी कहा जाता है, अभी भी एक दुर्लभ प्रजाति है। इसलिए, कोरिया फ़ॉरेस्ट सर्विस और कल्चरल हेरिटेज एडमिनिस्ट्रेशन, जिउमगैंग पाइन प्लांटेशन बनाने और प्रबंधित करने के लिए मिलकर काम कर रहे हैं।
+संगठन के वर्तमान प्रमुख नाम सुंग-ह्यून हैं, जिन्होंने मई 2022 में अपना कार्यकाल शुरू किया था।</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>379</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
         <is>
           <t>पाठ संदेश</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t>पाठ संदेशन, या पाठन का अभिप्राय एक नेटवर्क पर एक अचल लाइन फोन या मोबाइल फोन तथा अचल या सुवाह्य उपकरण के बीच संक्षिप्त लिखित संदेशों के आदान-प्रदान से है। जबकि मूल शब्द (नीचे देखें) रेडियो टोलीग्राफी से उत्पन्न लघु संदेश सेवा (एसएमएस (SMS)) का उपयोग करते हुए संदेशों के भेजे जाने की बात से व्युत्पन्न हुआ था, तब से छवि, वीडियो और ध्वनि सामग्री युक्त संदेशों को शामिल करने के लिए (एमएमएस (MMS) संदेशों के रूप में जाने जाते हैं) इसका विस्तार किया गया है। पाठ संदेश भेजने वाला प्रेषक (texter) के रूप में जाना जाता है, जबकि बोलचाल की भाषा में खुद इस सेवा के क्षेत्रों के आधार पर कई नाम हैं: उत्तरी अमेरिका, भारत, ऑस्ट्रेलिया, फिलीपीन्स और इंगलैंड में इसे मात्र पाठ (टेक्स्ट), अधिकतर यूरोप में एसएमएस (SMS) और मध्य पूर्व और एशिया में टीएमएस (TMS) या एसएमएस (SMS) कहा जाता है।
 पाठ संदेशों का उपयोग मोबाइल फोन के लिए उत्पादों और सेवाओं के आदेश देने या प्रतियोगिताओं में भाग लेने जैसे स्वचालित तंत्रों के साथ परस्पर क्रिया करने में किया जा सकता है। विज्ञापनदाता और सेवा प्रदाता पाठ संदेशों का उपयोग मोबाइल फोन प्रयोक्ताओं को प्रोत्साहनों, भुगतान देय तिथियों तथा अन्य सूचनाएं जिन्हें सामान्यतः डाक से, ईमेल से या वॉयसमेल से भेजा जा सकता है, को भेजने में कर सकते हैं।
 सीधी और संक्षिप्त परिभाषा में, फोन या मोबाइल फोन से पाठ संदेशन में अंग्रेजी वर्णमाला के 26 अक्षर तथा 10 अंक शामिल होने चाहिएं, अर्थात प्रेषक द्वारा प्रेषित या प्राप्तकर्ता द्वारा प्राप्त पाठ या अक्षरांकिक संदेश.</t>
         </is>
       </c>
-      <c r="C87" t="n">
+      <c r="C98" t="n">
         <v>251</v>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
         <is>
           <t>स्वर्गारोहिणी पर्वत शिखर</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>स्वर्गारोहिणी उत्तर भारत में हिमालय पर्वतमाला का एक पर्वत शिखर है। यह उत्तराखण्ड राज्य के उत्तरकाशी जिले में आता है। यह गढ़वाल हिमालय के सरस्वती रेन्ज (बन्दरपूंछ) का एक पर्वत पुंजक या समूह है जो गंगोत्री शिखर समूह के पश्चिमी ओर पड़ता है। इसमें चार पृथक शिखर आते हैं: स्वर्गारोहिणी मुख्य शिखर, जो इस लेख का केन्द्र है किन्तु हिमालयी मानकों के अनुसार  तो विशेष ऊंचाई का है और न ही बन्दरपूछ शृंखला का सबसे ऊंचा पर्वत है। इसका उत्तर मुख २ किलोमीटर से भी कम में ही २००० मी॰ (६५६० फ़ी॰) तक आ जाता है एवं दक्षिणी मुख 3 किलोमीटर (1.9 मील) में इतना ही ऊंचा रह जाता है। 
 कारण इसकी चढ़ाई खड़ी और चुनौतीपूर्ण  जाती है। इसके पूर्वि शिखर की ऊंचाई 6,247 मी॰ (20,495 फीट) है, जो पश्चिमि शिखर से कुछ कम है। हालांकि पश्चिमी शिखर के प्रथम आरोही दावा करते हैं कि यह अन्य दोनों शिखरों से ऊंचा है।
 यह हिमाच्छादित शिखर टोंस नदी का उद्गम है और बन्दरपूंछ पुन्जक के साथ यह यमुना एवं भागीरथी नदियों के बीच जल विभाजन करता है।</t>
         </is>
       </c>
-      <c r="C88" t="n">
+      <c r="C99" t="n">
         <v>176</v>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
         <is>
           <t>ओम पर्वत</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>ओम पर्वत, 6191 मीटर की ऊंचाई पर हिमालय पर्वत श्रृंखला के पहाड़ों में से एक है। यह पर्वत नाबीडागं से देखा जा सकता है। (ओम पर्वत पर  चढ़ना आज तक संभव नहीं हो पाया है।)  नाबीडांग से कुट्टी गांव होते हुए आप लिटिल कैलाश, आदि कैलाश,बाबा कैलाश जोकि  जोंगलिंगकोंग के नाम से प्रचलित स्थान पर स्थित है  हम जा सकते हैं। दूसरी तरफ लिपुलेख दर्रा होते हुए हम तिब्बत में स्थिति कैलाश मानसरोवर भी जा सकते हैं। एक प्रकार से यह स्थान कैलाश और आदि कैलाश के बीच में स्थित है।
 ये स्थान नेपाल - तिब्बत सीमा के पास में स्थित है जो एक शानदार
@@ -2261,22 +2535,22 @@
 अन्नपूर्णा की विशाल चोटियों को भी देख सकते हैं।यह स्थान धारचूला के निकट है।</t>
         </is>
       </c>
-      <c r="C89" t="n">
+      <c r="C100" t="n">
         <v>130</v>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
         <is>
           <t>समर कैम्प (ग्रीष्मकालीन शिविर)</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>समर कैम्प (ग्रीष्मकालीन शिविर), कुछ देशों में (आमतौर पर) गर्मियों के महीनों में बच्चों और/या किशोर-किशोरियों के लिए निगरानी के तहत आयोजित किये जाने वाला एक कार्यक्रम को कहते हैं। समर कैम्प में शामिल होने वाले बच्चों और किशोर-किशोरियों को कैम्पर्स के नाम से जाना जाता है।
 विभिन्न प्रकार के विशेष क्रियाकलापों वाले नए समर कैम्पों की अधिक से अधिक स्वीकृति के साथ, हाइकिंग (लंबी पैदल यात्रा), कैनोइंग (नौकायन) और कैम्पफायर (अलाव या शिविर-समारोह) के साथ एक जंगली स्थान के रूप में एक समर कैम्प के पारंपरिक नज़रिए का विकास हो रहा है। उदाहरण के लिए, प्रदर्शन कला, संगीत, जादू, कंप्यूटर, भाषा शिक्षण, गणित, विशेष जरूरतों वाले बच्चों और वजन कम करने के लिए कैम्पों का आयोजन किया जाता है। 2006 में, अमेरिकन कैम्प एसोसिएशन ने बताया कि कुल कैम्पों में से 75 प्रतिशत कैम्पों में नए कार्यक्रम शामिल किए गए हैं। छोटे आकार के परिवारों, पूरक शैक्षिक कार्यक्रमों में वृद्धि तथा इलेक्ट्रॉनिक मीडिया की बढ़ती लोकप्रियता के कारण समर कैम्पों के नामांकन में बड़े पैमाने पर होने वाली गिरावट को कम करने के लिए ऐसा किया गया है; इन सभी के कारण पिछली पीढ़ियों की तुलना में बच्चों को घर के अंदर ही व्यस्त रखना काफी आसान हो गया है। ये कैम्प हर उम्र के लोगों के लिए हो सकते हैं।
@@ -2284,105 +2558,129 @@
 कई कैम्पों का मुख्य उद्देश्य शैक्षिक या सांस्कृतिक विकास होता है। समर कैम्प के माहौल में बच्चों को एक सुरक्षित और परवरिश के माहौल में गुणकारी जोखिम उठाने का अवसर मिल सकता है।</t>
         </is>
       </c>
-      <c r="C90" t="n">
+      <c r="C101" t="n">
         <v>264</v>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
         <is>
           <t>गुजराती विश्वकोश</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>गुजराती विश्वकोश गुजराती भाषा का प्रथम तथा एकमात्र विश्वकोश है। इसका प्रकाशन गुजराती विश्वकोश ट्रस्ट द्वारा किया गया है। यह २५ भागों में है तथा १६६ से अधिक विषयों पर २,३०,००० से अधिक लेख हैं।</t>
         </is>
       </c>
-      <c r="C91" t="n">
+      <c r="C102" t="n">
         <v>35</v>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
         <is>
           <t>धूप के चश्मे</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>धूप के चश्मे एक प्रकार के सुरक्षात्मक नेत्र पहनावे हैं जिन्हें प्राथमिक रूप से आखों को सूरज की तेज़ रोशनी और उच्च-उर्जा वाले दृश्यमान प्रकाश के कारण होने वाली हानि या परेशानी से बचने के लिए डिजाइन किया गया है। वे कभी-कभी एक दृश्य सहायक के रूप में भी कार्य करते हैं, चूंकि विभिन्न नामों से ज्ञात चश्मे मौजूद हैं, जिनकी विशेषता यह होती है की उनका लेंस रंगीन, ध्रुवीकृत या गहरे रंग वाली होती है। 20वीं सदी के पूर्वार्ध में इन्हें सन चीटर्स के नाम से भी जाना जाता था (अमेरिकी अशिष्ट भाषा में चश्मो के लिए चीटर्स शब्द का इस्तेमाल किया जाता था).
 कई लोगों को प्रत्यक्ष धूप असुविधाजनक रूप से तेज़ लगती है। बाहरी गतिविधियों के दौरान, मानव आंख को सामान्य से अधिक प्रकाश प्राप्त हो सकता है। स्वास्थ्य पेशेवरों ने धूप के निकलते ही नेत्र सुरक्षा की सिफारिश की ताकि पराबैंगनी विकिरण (UV) से और नीली रोशनी से आखों की सुरक्षा की जा सके जो कई नेत्र सम्बंधी गंभीर समस्याओं को उत्पन्न कर सकता है। लंबे समय से धूप के चश्मे प्रमुख रूप से बड़ी हस्तियों और फिल्म अभिनेताओं के साथ संबद्ध रहे हैं जो उनके द्वारा अपनी पहचान छुपाने का प्रयास थे। 1940 के दशक के बाद से धूप के चश्मे फैशन अनुषंगी के रूप में लोकप्रिय हुए, विशेष रूप से बीच पर.</t>
         </is>
       </c>
-      <c r="C92" t="n">
+      <c r="C103" t="n">
         <v>218</v>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
         <is>
           <t>पुमोरी</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>'पुमोरी'  (नेपाली:  Puamric) (या  'पुमो री' ) नेपाल [[तिब्बत] - सीमा पर एक शिखर का नाम है  महालंगुर में हिमालय की एक शाखा । पुमोरी माउंट एवरेस्ट से सिर्फ आठ किलोमीटर पश्चिम में स्थित है। पुमोरी, जिसका अर्थ शेरपा भाषा में "पहाड़ की बेटी" है, जॉर्ज मल्लोरी द्वारा नामंकित किया गया था। "पुमो" का अर्थ है  लड़की या बेटी और "री" का अर्थ है शेरपा भाषा में पहाड़।  पर्वतारोही कभी-कभी पुमोरी को "एवरेस्ट की बेटी" के रूप में संदर्भित करते हैं।  मलोरी इसे उनकी बेटी के नाम पे क्लेयर पीक पुकार ते थे । 
 पुमोरी एक बहुत ही लोकप्रिय चढ़ाई की चोटी है। सबसे आसान मार्ग को 3 कक्षा वर्गीकृत किया गया है। हालांकि काफी हिमस्खलन के खतरे के बाबजूद। पुमोरी पहली बार 17 मई 1962 को गेरहार्ड लेसर  जर्मन -  स्विस अभियान द्वारा चढ़ा गया था।  दो [[चेक गणराज्य] चेक]] (लियोपोल्ड सुलोव्स्की और ज़ेडेनक मिशेल) 1996 के वसंत में दक्षिण चेहरे पर एक नए मार्ग द्वारा चढ़ गए। 
 पुमोरी का एक बाहरी भाग काला पत्थर (5,643 मी / 18,513 ') है, जो पुमोरी के दक्षिण मुख के ठीक  नीचे एक भूरे रंग की गांठ के रूप में दिखाई देता है। माउंट एवरेस्ट को करीब से देखने के लिए जाने वाले कई ट्रेकर्स काला पत्थर की चोटी पर चढ़ने का प्रयास करते हैं।</t>
         </is>
       </c>
-      <c r="C93" t="n">
+      <c r="C104" t="n">
         <v>213</v>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>थॉमस क्रीन (नाविक)</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>थॉमस क्रीन ( आयरिश: Tomás Ó Cuirín   ; c. 16 फरवरी 1877  - 27 जुलाई 1938) एक आयरिश नाविक और अंटार्कटिक खोजकर्ता थे, जिन्हें जीवन रक्षक (एएम) के लिए अल्बर्ट पदक से सम्मानित किया गया था।
+रॉबर्ट फाल्कन स्कॉट के 1911-1913 टेरा नोवा अभियान सहित अंटार्कटिक अन्वेषण के वीर युग के दौरान क्रीन अंटार्कटिका में तीन प्रमुख अभियानों का सदस्य था। इसने देखा कि दक्षिणी ध्रुव तक पहुँचने की दौड़ रोनाल्ड अमुंडसेन से हार गई और स्कॉट और उसकी पार्टी की मृत्यु में समाप्त हो गई। अभियान के दौरान, क्रिएन का 35-statute-mile (56 कि॰मी॰) एडवर्ड इवांस के जीवन को बचाने के लिए रॉस आइस शेल्फ में अकेले चलने से उन्हें अल्बर्ट पदक प्राप्त हुआ।
+क्रीन ने 16 साल की उम्र में रॉयल नेवी में भर्ती होने के लिए काउंटी केरी में अन्नास्कौल के पास परिवार के खेत को छोड़ दिया। 1901 में, न्यूजीलैंड में रिंगारूमा में सेवा करते हुए, उन्होंने स्वेच्छा से स्कॉट के 1901-1904 डिस्कवरी अभियान में अंटार्कटिका में शामिल होने के लिए, इस प्रकार अपनी खोज की शुरुआत की। करियर।
+टेरा नोवा पर अपने अनुभव के बाद, क्रैन का तीसरा और अंतिम अंटार्कटिक उद्यम अर्नेस्ट शेकलटन के इंपीरियल ट्रांस-अंटार्कटिक अभियान के दूसरे अधिकारी के रूप में था। जहाज के बाद एंड्योरेंस पैक बर्फ में डूब गया और डूब गया, क्रीन और जहाज की कंपनी ने एलिफेंट आइलैंड के लिए जहाज की लाइफबोट में यात्रा करने से पहले 492 दिन बर्फ पर बहते हुए बिताए। वह उस दल का सदस्य था जिसने फंसे हुए दल की सहायता के लिए हाथी द्वीप से दक्षिण जॉर्जिया द्वीप तक 800 समुद्री मील (1,500 किमी) की एक छोटी नाव यात्रा की थी।
+1920 में स्वास्थ्य के आधार पर नौसेना से सेवानिवृत्त होने के बाद, क्रीन ने अपनी पत्नी और बेटियों के साथ काउंटी केरी में अपना पब साउथ पोल इन चलाया। 1938 में उनका निधन हो गया।</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>304</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
         <is>
           <t>उमर खान</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>7 जून, 1982 को जन्में उमर खान (उर्दू: عمر خان) पाकिस्तान के फ़िल्म अभिनेता हैं।</t>
         </is>
       </c>
-      <c r="C94" t="n">
+      <c r="C106" t="n">
         <v>15</v>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
         <is>
           <t>मधुसूदन पाटीदार</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>मधुसूदन पाटीदार (जन्म 19 जुलाई 1996) इंदौर के राऊ क्षेत्र से एक अंतर्राष्ट्रीय पर्वतारोही, साहसी और खोजकर्ता हैं। मधुसूदन एक मध्यम वर्गीय परिवार से हैं और पेशे से एक फायर टेक्नोलॉजी इंजीनियर हैं। 21 मई 2017 को वह माउंट एवरेस्ट पर सफलतापूर्वक चढ़ने वाले मध्य रिज से उत्तरी रिज तक शीर्ष पर पहुंचने वाले सबसे कम उम्र के व्यक्ति बन गए। उन्होंने शिखर पर 22 घंटे का रिकॉर्ड अपने नाम करते हुये किलिमजांरो पहाड पर भी चढ़ाई की। 
 राष्ट्रीयता - भारतीय
@@ -2391,22 +2689,22 @@
 चढ़ाई करियर के लिए जाना जाता है - किलिमंजारो पर्वत पर 22 घंटे रहने के लिए दुनिया में पहला व्यक्ति।</t>
         </is>
       </c>
-      <c r="C95" t="n">
+      <c r="C107" t="n">
         <v>115</v>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
         <is>
           <t>ऐनो पर्वत</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>ऐनो पर्वत (間ノ岳 ऐनो-डेक) जापान के यमानाशी प्रान्त, "दक्षिणी एल्प्स" (南アルプス मिनमी-अरुमुसू) में, अकीशी पर्वत की एक पर्वत चोटी हैं। 
 3,189 मीटर (10,463 फीट) ऊचाई के साथ, यह जापान की चौथी सबसे ऊंची शिखर और अकीशी पर्वत में दूसरा सबसे ऊंचा स्थान है।
@@ -2414,112 +2712,112 @@
 यह जापान के 100 प्रसिद्ध पर्वतों में शामिल हैं।</t>
         </is>
       </c>
-      <c r="C96" t="n">
+      <c r="C108" t="n">
         <v>73</v>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
         <is>
           <t>नक्षा</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>नक्शा किसी भी क्षेत्र का एक दृश्य प्रतिनिधित्व है- एक प्रतीकात्मक चित्रण जो कि उस जगह के तत्वों के बीच संबंधों पर प्रकाश डालता है, जैसे की वस्तुएँ, क्षेत्र और विषय.
 कई नक्शे स्थैतिक द्विविम होते हैं, क्षेत्र का सठीक ज्यामितीय (या लगभग सठीक) त्रिविमीय अभ्यावेदन होते हैं, कुछ अन्य गतिशील या संवादात्मक होते हैं, त्रिविमीय भी.हालांकि इसका सबसे अधिक उपयोग भूगोल को दर्शाने के लिए किया जाता है, नक्शे किसी भी संदर्भ या पैमाने के बिना असली या काल्पनिक स्थान का प्रतिनिधित्व कर सकते हैं; उदाहरण के लिए मस्तिष्क मानचित्रण, DNA मानचित्रण और आलौकिक मानचित्रण.</t>
         </is>
       </c>
-      <c r="C97" t="n">
+      <c r="C109" t="n">
         <v>96</v>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
         <is>
           <t>ज्योतषना पी</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>पी. ज्योतषना एक भारतीय बैडमिंटन खिलाड़ी हैं। वह दोनों डबल्स और मिश्रित डबल्स खेलती है। उन्होंने महिला डबल्स स्पर्धाओं के लिए प्रज्ञा गड़रे की भागीदारी की।</t>
         </is>
       </c>
-      <c r="C98" t="n">
+      <c r="C110" t="n">
         <v>26</v>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
         <is>
           <t>पद्म विभूषण धारकों की सूची</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>यह भारत सरकार द्वारा पद्म विभूषण से अलंकृत किए गए लोगों की सूची है:</t>
         </is>
       </c>
-      <c r="C99" t="n">
+      <c r="C111" t="n">
         <v>14</v>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
         <is>
           <t>क्रिस्टिन हरिला</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>क्रिस्टिन हरिला का जन्म 28 मार्च 1986, में नॉर्वे के वेस्ट्रे जकोबसेल्व, वाडसो नगर पालिका में हुआ। वह एक नॉर्वेजियन सामी पर्वतारोही और पूर्व क्रॉस-कंट्री स्कीयर हैं।.
 एक क्रॉस-कंट्री स्कीयर के रूप में वह 2006 में नॉर्वेजियन चैंपियनशिप में 24वें और 25वें स्थान पर रहने में सफल रहीं। उन्होंने आईएल पोलारस्टजर्नन क्लब का प्रतिनिधित्व किया।.</t>
         </is>
       </c>
-      <c r="C100" t="n">
+      <c r="C112" t="n">
         <v>55</v>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>पर्वतारोहण</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>पर्वतारोहण</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
         <is>
           <t>बांग्लादेशी लोगों की सूची</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B113" t="inlineStr">
         <is>
           <t>नीचे उल्लेखित प्रमुख व्यक्ति वे हैं जो या तो बांग्लादेश के नागरिक हैं, या बांग्लादेश में जन्मे हैं, या विदेश में रहने वाले बांग्लादेशी मूल के हैं। संक्षिप्तता के उद्देश्य से, जिन लोगों को एक से अधिक श्रेणियों में रखा गया है, उन्हें केवल एक श्रेणी में सूचीबद्ध किया गया है। अधिक जानकारी के लिए, कृपया बांग्लादेशी लोगों को देखें।</t>
         </is>
       </c>
-      <c r="C101" t="n">
+      <c r="C113" t="n">
         <v>60</v>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="D113" t="inlineStr">
         <is>
           <t>पर्वतारोहण</t>
         </is>
